--- a/EXAMS/itech150/midtermFA17.xlsx
+++ b/EXAMS/itech150/midtermFA17.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ITECH 150\exams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\libraries\Documents\GitHub\computer-apps-primer\EXAMS\itech150\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -826,9 +826,6 @@
     <t>5. Adjust the filters at the top of the pivot table so that only private colleges from Minnesota are visible</t>
   </si>
   <si>
-    <t>6. Create a bar graph showing all of the MN public university tuitions</t>
-  </si>
-  <si>
     <t>7. Adjust the filter to show all colleges (public and private) in Minnesota. Observe how the graph changes to reflect this.</t>
   </si>
   <si>
@@ -836,17 +833,20 @@
   </si>
   <si>
     <t>It should look something like this:</t>
+  </si>
+  <si>
+    <t>6. Create a bar graph showing all of the MN private university tuitions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -882,7 +882,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -935,18 +954,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1035,16 +1055,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G202" totalsRowShown="0">
-  <autoFilter ref="A2:G202"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:G202" totalsRowShown="0">
+  <autoFilter ref="A2:G202" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A3:G202">
+    <sortCondition ref="A2:A202"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="School"/>
-    <tableColumn id="2" name="State"/>
-    <tableColumn id="3" name="Enrollment"/>
-    <tableColumn id="4" name="In-State Total Costs" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="5" name="In-State Costs After Aid" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="6" name="Avg. Debt at Grad." dataDxfId="0" dataCellStyle="Comma"/>
-    <tableColumn id="7" name="Public(1)/Private(2)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="School"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="State"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Enrollment"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="In-State Total Costs" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="In-State Costs After Aid" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Avg. Debt at Grad." dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Public(1)/Private(2)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1346,130 +1369,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="1" max="1" width="60.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1480,11 +1504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1499,15 +1523,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1534,45 +1558,45 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C3">
-        <v>19603</v>
+        <v>1618</v>
       </c>
       <c r="D3" s="1">
-        <v>10276</v>
+        <v>38492</v>
       </c>
       <c r="E3" s="1">
-        <v>7308</v>
+        <v>14453</v>
       </c>
       <c r="F3" s="1">
-        <v>18585</v>
+        <v>11544</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>15441</v>
+        <v>12852</v>
       </c>
       <c r="D4" s="1">
-        <v>11197</v>
+        <v>7913</v>
       </c>
       <c r="E4" s="1">
-        <v>8136</v>
+        <v>4785</v>
       </c>
       <c r="F4" s="1">
-        <v>18978</v>
+        <v>13000</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1580,22 +1604,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>12889</v>
+        <v>19603</v>
       </c>
       <c r="D5" s="1">
-        <v>10706</v>
+        <v>10276</v>
       </c>
       <c r="E5" s="1">
-        <v>7144</v>
+        <v>7308</v>
       </c>
       <c r="F5" s="1">
-        <v>14029</v>
+        <v>18585</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1603,252 +1627,252 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C6">
-        <v>28278</v>
+        <v>1735</v>
       </c>
       <c r="D6" s="1">
-        <v>11163</v>
+        <v>38443</v>
       </c>
       <c r="E6" s="1">
-        <v>8506</v>
+        <v>21316</v>
       </c>
       <c r="F6" s="1">
-        <v>17340</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>19087</v>
+        <v>1454</v>
       </c>
       <c r="D7" s="1">
-        <v>16000</v>
+        <v>38282</v>
       </c>
       <c r="E7" s="1">
-        <v>9043</v>
+        <v>20558</v>
       </c>
       <c r="F7" s="1">
-        <v>13275</v>
+        <v>15400</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>23835</v>
+        <v>2297</v>
       </c>
       <c r="D8" s="1">
-        <v>17265</v>
+        <v>37940</v>
       </c>
       <c r="E8" s="1">
-        <v>8982</v>
+        <v>17826</v>
       </c>
       <c r="F8" s="1">
-        <v>14990</v>
+        <v>14030</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C9">
-        <v>24899</v>
+        <v>1738</v>
       </c>
       <c r="D9" s="1">
-        <v>17616</v>
+        <v>38932</v>
       </c>
       <c r="E9" s="1">
-        <v>9975</v>
+        <v>18258</v>
       </c>
       <c r="F9" s="1">
-        <v>12775</v>
+        <v>17045</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>22661</v>
+        <v>1281</v>
       </c>
       <c r="D10" s="1">
-        <v>16521</v>
+        <v>30264</v>
       </c>
       <c r="E10" s="1">
-        <v>10334</v>
+        <v>17452</v>
       </c>
       <c r="F10" s="1">
-        <v>13507</v>
+        <v>14942</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="C11">
-        <v>19179</v>
+        <v>9000</v>
       </c>
       <c r="D11" s="1">
-        <v>15635</v>
+        <v>37745</v>
       </c>
       <c r="E11" s="1">
-        <v>8507</v>
+        <v>24470</v>
       </c>
       <c r="F11" s="1">
-        <v>12513</v>
+        <v>16732</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C12">
-        <v>17714</v>
+        <v>1657</v>
       </c>
       <c r="D12" s="1">
-        <v>16154</v>
+        <v>38663</v>
       </c>
       <c r="E12" s="1">
-        <v>10231</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>17773</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15307</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="C13">
-        <v>17401</v>
+        <v>3057</v>
       </c>
       <c r="D13" s="1">
-        <v>11781</v>
+        <v>39101</v>
       </c>
       <c r="E13" s="1">
-        <v>10429</v>
+        <v>22257</v>
       </c>
       <c r="F13" s="1">
-        <v>12842</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="C14">
-        <v>12881</v>
+        <v>29379</v>
       </c>
       <c r="D14" s="1">
-        <v>16877</v>
+        <v>9663</v>
       </c>
       <c r="E14" s="1">
-        <v>9309</v>
+        <v>7621</v>
       </c>
       <c r="F14" s="1">
-        <v>13282</v>
+        <v>11000</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="C15">
-        <v>14124</v>
+        <v>6030</v>
       </c>
       <c r="D15" s="1">
-        <v>16751</v>
+        <v>40248</v>
       </c>
       <c r="E15" s="1">
-        <v>9932</v>
+        <v>20838</v>
       </c>
       <c r="F15" s="1">
-        <v>13226</v>
+        <v>21700</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="C16">
-        <v>939</v>
+        <v>1321</v>
       </c>
       <c r="D16" s="1">
-        <v>32682</v>
+        <v>37890</v>
       </c>
       <c r="E16" s="1">
-        <v>10981</v>
+        <v>18609</v>
       </c>
       <c r="F16" s="1">
-        <v>10244</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1856,22 +1880,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="C17">
-        <v>7360</v>
+        <v>3440</v>
       </c>
       <c r="D17" s="1">
-        <v>38875</v>
+        <v>36165</v>
       </c>
       <c r="E17" s="1">
-        <v>17746</v>
+        <v>19165</v>
       </c>
       <c r="F17" s="1">
-        <v>15782</v>
+        <v>16000</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1879,22 +1903,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
       <c r="C18">
-        <v>1551</v>
+        <v>939</v>
       </c>
       <c r="D18" s="1">
-        <v>38130</v>
+        <v>32682</v>
       </c>
       <c r="E18" s="1">
-        <v>17411</v>
+        <v>10981</v>
       </c>
       <c r="F18" s="1">
-        <v>15600</v>
+        <v>10244</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1902,45 +1926,45 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19">
-        <v>1024</v>
+        <v>17401</v>
       </c>
       <c r="D19" s="1">
-        <v>37730</v>
+        <v>11781</v>
       </c>
       <c r="E19" s="1">
-        <v>17988</v>
+        <v>10429</v>
       </c>
       <c r="F19" s="1">
-        <v>16914</v>
+        <v>12842</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C20">
-        <v>699</v>
+        <v>1932</v>
       </c>
       <c r="D20" s="1">
-        <v>38880</v>
+        <v>35288</v>
       </c>
       <c r="E20" s="1">
-        <v>22041</v>
+        <v>21677</v>
       </c>
       <c r="F20" s="1">
-        <v>20219</v>
+        <v>14543</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1948,22 +1972,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="C21">
-        <v>16145</v>
+        <v>5475</v>
       </c>
       <c r="D21" s="1">
-        <v>37968</v>
+        <v>38460</v>
       </c>
       <c r="E21" s="1">
-        <v>21606</v>
+        <v>24689</v>
       </c>
       <c r="F21" s="1">
-        <v>20619</v>
+        <v>19195</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1971,22 +1995,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C22">
-        <v>798</v>
+        <v>3457</v>
       </c>
       <c r="D22" s="1">
-        <v>36500</v>
+        <v>32802</v>
       </c>
       <c r="E22" s="1">
-        <v>17984</v>
+        <v>18323</v>
       </c>
       <c r="F22" s="1">
-        <v>12941</v>
+        <v>21830</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1994,68 +2018,68 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C23">
-        <v>2504</v>
+        <v>1055</v>
       </c>
       <c r="D23" s="1">
-        <v>13780</v>
+        <v>28529</v>
       </c>
       <c r="E23" s="1">
-        <v>8532</v>
+        <v>15842</v>
       </c>
       <c r="F23" s="1">
-        <v>17500</v>
+        <v>14300</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>21677</v>
+        <v>1024</v>
       </c>
       <c r="D24" s="1">
-        <v>10689</v>
+        <v>37730</v>
       </c>
       <c r="E24" s="1">
-        <v>6700</v>
+        <v>17988</v>
       </c>
       <c r="F24" s="1">
-        <v>16042</v>
+        <v>16914</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C25">
-        <v>25158</v>
+        <v>13734</v>
       </c>
       <c r="D25" s="1">
-        <v>11937</v>
+        <v>14618</v>
       </c>
       <c r="E25" s="1">
-        <v>7877</v>
+        <v>11121</v>
       </c>
       <c r="F25" s="1">
-        <v>16737</v>
+        <v>14347</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2063,22 +2087,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C26">
-        <v>1902</v>
+        <v>1830</v>
       </c>
       <c r="D26" s="1">
-        <v>35275</v>
+        <v>38699</v>
       </c>
       <c r="E26" s="1">
-        <v>16516</v>
+        <v>18168</v>
       </c>
       <c r="F26" s="1">
-        <v>13500</v>
+        <v>17270</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2086,91 +2110,91 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>14716</v>
+        <v>2827</v>
       </c>
       <c r="D27" s="1">
-        <v>14413</v>
+        <v>38820</v>
       </c>
       <c r="E27" s="1">
-        <v>9141</v>
+        <v>18856</v>
       </c>
       <c r="F27" s="1">
-        <v>16093</v>
+        <v>12984</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="C28">
-        <v>5339</v>
+        <v>10044</v>
       </c>
       <c r="D28" s="1">
-        <v>38432</v>
+        <v>14008</v>
       </c>
       <c r="E28" s="1">
-        <v>15729</v>
+        <v>11214</v>
       </c>
       <c r="F28" s="1">
-        <v>19228</v>
+        <v>15135</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="C29">
-        <v>2733</v>
+        <v>5961</v>
       </c>
       <c r="D29" s="1">
-        <v>39127</v>
+        <v>16686</v>
       </c>
       <c r="E29" s="1">
-        <v>21401</v>
+        <v>13915</v>
       </c>
       <c r="F29" s="1">
-        <v>23753</v>
+        <v>5490</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C30">
-        <v>2098</v>
+        <v>2801</v>
       </c>
       <c r="D30" s="1">
-        <v>38890</v>
+        <v>36851</v>
       </c>
       <c r="E30" s="1">
-        <v>19667</v>
+        <v>23846</v>
       </c>
       <c r="F30" s="1">
-        <v>17000</v>
+        <v>16063</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2178,252 +2202,252 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>1890</v>
+        <v>5694</v>
       </c>
       <c r="D31" s="1">
-        <v>37057</v>
+        <v>13024</v>
       </c>
       <c r="E31" s="1">
-        <v>16930</v>
+        <v>6668</v>
       </c>
       <c r="F31" s="1">
-        <v>17250</v>
+        <v>19762</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="C32">
-        <v>6332</v>
+        <v>2504</v>
       </c>
       <c r="D32" s="1">
-        <v>39182</v>
+        <v>13780</v>
       </c>
       <c r="E32" s="1">
-        <v>24382</v>
+        <v>8532</v>
       </c>
       <c r="F32" s="1">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="C33">
-        <v>10328</v>
+        <v>21677</v>
       </c>
       <c r="D33" s="1">
-        <v>40240</v>
+        <v>10689</v>
       </c>
       <c r="E33" s="1">
-        <v>25866</v>
+        <v>6700</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>16042</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C34">
-        <v>17486</v>
+        <v>4109</v>
       </c>
       <c r="D34" s="1">
-        <v>13416</v>
+        <v>39493</v>
       </c>
       <c r="E34" s="1">
-        <v>7666</v>
+        <v>17778</v>
       </c>
       <c r="F34" s="1">
-        <v>13610</v>
+        <v>15331</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="C35">
-        <v>34031</v>
+        <v>1890</v>
       </c>
       <c r="D35" s="1">
-        <v>10611</v>
+        <v>37057</v>
       </c>
       <c r="E35" s="1">
-        <v>6125</v>
+        <v>16930</v>
       </c>
       <c r="F35" s="1">
-        <v>14449</v>
+        <v>17250</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C36">
-        <v>650</v>
+        <v>917</v>
       </c>
       <c r="D36" s="1">
-        <v>10947</v>
+        <v>14652</v>
       </c>
       <c r="E36" s="1">
-        <v>5613</v>
+        <v>11167</v>
       </c>
       <c r="F36" s="1">
-        <v>16645</v>
+        <v>9250</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C37">
-        <v>29195</v>
+        <v>13725</v>
       </c>
       <c r="D37" s="1">
-        <v>10994</v>
+        <v>38974</v>
       </c>
       <c r="E37" s="1">
-        <v>7035</v>
+        <v>23122</v>
       </c>
       <c r="F37" s="1">
-        <v>16372</v>
+        <v>15587</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="C38">
-        <v>32044</v>
+        <v>4118</v>
       </c>
       <c r="D38" s="1">
-        <v>10839</v>
+        <v>38898</v>
       </c>
       <c r="E38" s="1">
-        <v>8353</v>
+        <v>19546</v>
       </c>
       <c r="F38" s="1">
-        <v>14927</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>24983</v>
+        <v>1645</v>
       </c>
       <c r="D39" s="1">
-        <v>10534</v>
+        <v>34706</v>
       </c>
       <c r="E39" s="1">
-        <v>5245</v>
+        <v>21455</v>
       </c>
       <c r="F39" s="1">
-        <v>12906</v>
+        <v>13697</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C40">
-        <v>11456</v>
+        <v>2338</v>
       </c>
       <c r="D40" s="1">
-        <v>11340</v>
+        <v>32150</v>
       </c>
       <c r="E40" s="1">
-        <v>6022</v>
+        <v>15531</v>
       </c>
       <c r="F40" s="1">
-        <v>17221</v>
+        <v>14481</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C41">
-        <v>6302</v>
+        <v>2261</v>
       </c>
       <c r="D41" s="1">
-        <v>37272</v>
+        <v>36600</v>
       </c>
       <c r="E41" s="1">
-        <v>19657</v>
+        <v>19753</v>
       </c>
       <c r="F41" s="1">
-        <v>17675</v>
+        <v>17586</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -2431,68 +2455,68 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>22999</v>
+        <v>6206</v>
       </c>
       <c r="D42" s="1">
-        <v>11588</v>
+        <v>40080</v>
       </c>
       <c r="E42" s="1">
-        <v>8736</v>
+        <v>19996</v>
       </c>
       <c r="F42" s="1">
-        <v>17119</v>
+        <v>20025</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>20487</v>
+        <v>6302</v>
       </c>
       <c r="D43" s="1">
-        <v>11763</v>
+        <v>37272</v>
       </c>
       <c r="E43" s="1">
-        <v>9460</v>
+        <v>19657</v>
       </c>
       <c r="F43" s="1">
-        <v>15335</v>
+        <v>17675</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>12397</v>
+        <v>29195</v>
       </c>
       <c r="D44" s="1">
-        <v>10634</v>
+        <v>10994</v>
       </c>
       <c r="E44" s="1">
-        <v>7632</v>
+        <v>7035</v>
       </c>
       <c r="F44" s="1">
-        <v>15786</v>
+        <v>16372</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2500,22 +2524,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C45">
-        <v>1485</v>
+        <v>1926</v>
       </c>
       <c r="D45" s="1">
-        <v>31460</v>
+        <v>36580</v>
       </c>
       <c r="E45" s="1">
-        <v>16585</v>
+        <v>20925</v>
       </c>
       <c r="F45" s="1">
-        <v>13854</v>
+        <v>19656</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -2523,45 +2547,45 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C46">
-        <v>28947</v>
+        <v>2772</v>
       </c>
       <c r="D46" s="1">
-        <v>14410</v>
+        <v>29430</v>
       </c>
       <c r="E46" s="1">
-        <v>8045</v>
+        <v>16296</v>
       </c>
       <c r="F46" s="1">
-        <v>14791</v>
+        <v>17741</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>18353</v>
+        <v>16687</v>
       </c>
       <c r="D47" s="1">
-        <v>12971</v>
+        <v>11602</v>
       </c>
       <c r="E47" s="1">
-        <v>7199</v>
+        <v>7597</v>
       </c>
       <c r="F47" s="1">
-        <v>13921</v>
+        <v>14143</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2569,68 +2593,68 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C48">
-        <v>16543</v>
+        <v>6332</v>
       </c>
       <c r="D48" s="1">
-        <v>14299</v>
+        <v>39182</v>
       </c>
       <c r="E48" s="1">
-        <v>6399</v>
+        <v>24382</v>
       </c>
       <c r="F48" s="1">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>7946</v>
+        <v>11456</v>
       </c>
       <c r="D49" s="1">
-        <v>38817</v>
+        <v>11340</v>
       </c>
       <c r="E49" s="1">
-        <v>20376</v>
+        <v>6022</v>
       </c>
       <c r="F49" s="1">
-        <v>14551</v>
+        <v>17221</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C50">
-        <v>2107</v>
+        <v>1485</v>
       </c>
       <c r="D50" s="1">
-        <v>30780</v>
+        <v>31460</v>
       </c>
       <c r="E50" s="1">
-        <v>18858</v>
+        <v>16585</v>
       </c>
       <c r="F50" s="1">
-        <v>17722</v>
+        <v>13854</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -2638,22 +2662,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="C51">
-        <v>2395</v>
+        <v>2536</v>
       </c>
       <c r="D51" s="1">
-        <v>27076</v>
+        <v>27820</v>
       </c>
       <c r="E51" s="1">
-        <v>17341</v>
+        <v>17609</v>
       </c>
       <c r="F51" s="1">
-        <v>15864</v>
+        <v>17400</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -2661,22 +2685,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C52">
-        <v>1121</v>
+        <v>1851</v>
       </c>
       <c r="D52" s="1">
-        <v>30894</v>
+        <v>38463</v>
       </c>
       <c r="E52" s="1">
-        <v>15494</v>
+        <v>19474</v>
       </c>
       <c r="F52" s="1">
-        <v>16920</v>
+        <v>16856</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -2684,68 +2708,68 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C53">
-        <v>30908</v>
+        <v>6637</v>
       </c>
       <c r="D53" s="1">
-        <v>14691</v>
+        <v>38831</v>
       </c>
       <c r="E53" s="1">
-        <v>8723</v>
+        <v>17456</v>
       </c>
       <c r="F53" s="1">
-        <v>15677</v>
+        <v>10465</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C54">
-        <v>30752</v>
+        <v>699</v>
       </c>
       <c r="D54" s="1">
-        <v>13129</v>
+        <v>38880</v>
       </c>
       <c r="E54" s="1">
-        <v>8704</v>
+        <v>22041</v>
       </c>
       <c r="F54" s="1">
-        <v>16930</v>
+        <v>20219</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C55">
-        <v>8261</v>
+        <v>1105</v>
       </c>
       <c r="D55" s="1">
-        <v>35392</v>
+        <v>38928</v>
       </c>
       <c r="E55" s="1">
-        <v>18011</v>
+        <v>17826</v>
       </c>
       <c r="F55" s="1">
-        <v>25595</v>
+        <v>15253</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -2753,22 +2777,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C56">
-        <v>1869</v>
+        <v>1220</v>
       </c>
       <c r="D56" s="1">
-        <v>24723</v>
+        <v>23353</v>
       </c>
       <c r="E56" s="1">
-        <v>15678</v>
+        <v>13853</v>
       </c>
       <c r="F56" s="1">
-        <v>15117</v>
+        <v>14500</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -2776,45 +2800,45 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C57">
-        <v>2338</v>
+        <v>18353</v>
       </c>
       <c r="D57" s="1">
-        <v>32150</v>
+        <v>12971</v>
       </c>
       <c r="E57" s="1">
-        <v>15531</v>
+        <v>7199</v>
       </c>
       <c r="F57" s="1">
-        <v>14481</v>
+        <v>13921</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>1642</v>
+        <v>2107</v>
       </c>
       <c r="D58" s="1">
-        <v>32625</v>
+        <v>30780</v>
       </c>
       <c r="E58" s="1">
-        <v>28677</v>
+        <v>18858</v>
       </c>
       <c r="F58" s="1">
-        <v>27000</v>
+        <v>17722</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -2822,22 +2846,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C59">
-        <v>20605</v>
+        <v>30752</v>
       </c>
       <c r="D59" s="1">
-        <v>9673</v>
+        <v>13129</v>
       </c>
       <c r="E59" s="1">
-        <v>6266</v>
+        <v>8704</v>
       </c>
       <c r="F59" s="1">
-        <v>17347</v>
+        <v>16930</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2845,22 +2869,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C60">
-        <v>19048</v>
+        <v>22999</v>
       </c>
       <c r="D60" s="1">
-        <v>9626</v>
+        <v>11588</v>
       </c>
       <c r="E60" s="1">
-        <v>7104</v>
+        <v>8736</v>
       </c>
       <c r="F60" s="1">
-        <v>17000</v>
+        <v>17119</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2868,22 +2892,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>17830</v>
+        <v>14828</v>
       </c>
       <c r="D61" s="1">
-        <v>9432</v>
+        <v>13145</v>
       </c>
       <c r="E61" s="1">
-        <v>5594</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>21</v>
+        <v>9320</v>
+      </c>
+      <c r="F61" s="1">
+        <v>11786</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2891,22 +2915,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C62">
-        <v>1055</v>
+        <v>4112</v>
       </c>
       <c r="D62" s="1">
-        <v>28529</v>
+        <v>39188</v>
       </c>
       <c r="E62" s="1">
-        <v>15842</v>
+        <v>19142</v>
       </c>
       <c r="F62" s="1">
-        <v>14300</v>
+        <v>13600</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -2914,45 +2938,45 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>26660</v>
+        <v>1265</v>
       </c>
       <c r="D63" s="1">
-        <v>10126</v>
+        <v>30917</v>
       </c>
       <c r="E63" s="1">
-        <v>7406</v>
+        <v>17947</v>
       </c>
       <c r="F63" s="1">
-        <v>17569</v>
+        <v>20000</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="C64">
-        <v>18606</v>
+        <v>19048</v>
       </c>
       <c r="D64" s="1">
-        <v>14480</v>
+        <v>9626</v>
       </c>
       <c r="E64" s="1">
-        <v>9714</v>
+        <v>7104</v>
       </c>
       <c r="F64" s="1">
-        <v>15321</v>
+        <v>17000</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2960,22 +2984,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C65">
-        <v>1985</v>
+        <v>1576</v>
       </c>
       <c r="D65" s="1">
-        <v>36550</v>
+        <v>36273</v>
       </c>
       <c r="E65" s="1">
-        <v>14737</v>
+        <v>17905</v>
       </c>
       <c r="F65" s="1">
-        <v>12316</v>
+        <v>20850</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -2983,22 +3007,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="C66">
-        <v>1618</v>
+        <v>1121</v>
       </c>
       <c r="D66" s="1">
-        <v>38492</v>
+        <v>30894</v>
       </c>
       <c r="E66" s="1">
-        <v>14453</v>
+        <v>15494</v>
       </c>
       <c r="F66" s="1">
-        <v>11544</v>
+        <v>16920</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -3006,22 +3030,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C67">
-        <v>6637</v>
+        <v>2300</v>
       </c>
       <c r="D67" s="1">
-        <v>38831</v>
+        <v>35713</v>
       </c>
       <c r="E67" s="1">
-        <v>17456</v>
+        <v>15147</v>
       </c>
       <c r="F67" s="1">
-        <v>10465</v>
+        <v>17380</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -3029,22 +3053,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="C68">
-        <v>4178</v>
+        <v>1389</v>
       </c>
       <c r="D68" s="1">
-        <v>39213</v>
+        <v>32875</v>
       </c>
       <c r="E68" s="1">
-        <v>19609</v>
+        <v>17882</v>
       </c>
       <c r="F68" s="1">
-        <v>22855</v>
+        <v>18311</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -3052,22 +3076,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C69">
-        <v>2300</v>
+        <v>4706</v>
       </c>
       <c r="D69" s="1">
-        <v>37419</v>
+        <v>35670</v>
       </c>
       <c r="E69" s="1">
-        <v>17526</v>
+        <v>19123</v>
       </c>
       <c r="F69" s="1">
-        <v>15697</v>
+        <v>16972</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -3075,45 +3099,45 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C70">
-        <v>3057</v>
+        <v>26660</v>
       </c>
       <c r="D70" s="1">
-        <v>39101</v>
+        <v>10126</v>
       </c>
       <c r="E70" s="1">
-        <v>22257</v>
+        <v>7406</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>17569</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C71">
-        <v>2801</v>
+        <v>1840</v>
       </c>
       <c r="D71" s="1">
-        <v>36851</v>
+        <v>32847</v>
       </c>
       <c r="E71" s="1">
-        <v>23846</v>
+        <v>16394</v>
       </c>
       <c r="F71" s="1">
-        <v>16063</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -3121,45 +3145,45 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>4910</v>
+        <v>4275</v>
       </c>
       <c r="D72" s="1">
-        <v>39173</v>
+        <v>12287</v>
       </c>
       <c r="E72" s="1">
-        <v>20115</v>
+        <v>9033</v>
       </c>
       <c r="F72" s="1">
-        <v>15499</v>
+        <v>13100</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="B73" t="s">
         <v>109</v>
       </c>
       <c r="C73">
-        <v>2191</v>
+        <v>4178</v>
       </c>
       <c r="D73" s="1">
-        <v>38668</v>
+        <v>39213</v>
       </c>
       <c r="E73" s="1">
-        <v>19268</v>
+        <v>19609</v>
       </c>
       <c r="F73" s="1">
-        <v>14200</v>
+        <v>22855</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -3167,114 +3191,114 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C74">
-        <v>2647</v>
+        <v>15384</v>
       </c>
       <c r="D74" s="1">
-        <v>37937</v>
+        <v>15833</v>
       </c>
       <c r="E74" s="1">
-        <v>18466</v>
+        <v>12467</v>
       </c>
       <c r="F74" s="1">
-        <v>19911</v>
+        <v>17579</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="C75">
-        <v>9000</v>
+        <v>35197</v>
       </c>
       <c r="D75" s="1">
-        <v>37745</v>
+        <v>12743</v>
       </c>
       <c r="E75" s="1">
-        <v>24470</v>
+        <v>8670</v>
       </c>
       <c r="F75" s="1">
-        <v>16732</v>
+        <v>18663</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>247</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="C76">
-        <v>1735</v>
+        <v>5915</v>
       </c>
       <c r="D76" s="1">
-        <v>38443</v>
+        <v>14135</v>
       </c>
       <c r="E76" s="1">
-        <v>21316</v>
+        <v>9339</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>15711</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="C77">
-        <v>25179</v>
+        <v>2297</v>
       </c>
       <c r="D77" s="1">
-        <v>16304</v>
+        <v>39532</v>
       </c>
       <c r="E77" s="1">
-        <v>12223</v>
+        <v>18288</v>
       </c>
       <c r="F77" s="1">
-        <v>15566</v>
+        <v>21751</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C78">
-        <v>1823</v>
+        <v>13373</v>
       </c>
       <c r="D78" s="1">
-        <v>16908</v>
+        <v>11130</v>
       </c>
       <c r="E78" s="1">
-        <v>12908</v>
+        <v>8174</v>
       </c>
       <c r="F78" s="1">
-        <v>17125</v>
+        <v>15081</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -3282,22 +3306,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C79">
-        <v>6206</v>
+        <v>2166</v>
       </c>
       <c r="D79" s="1">
-        <v>12895</v>
+        <v>8649</v>
       </c>
       <c r="E79" s="1">
-        <v>9506</v>
+        <v>8649</v>
       </c>
       <c r="F79" s="1">
-        <v>14773</v>
+        <v>13500</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -3305,45 +3329,45 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C80">
-        <v>14296</v>
+        <v>2191</v>
       </c>
       <c r="D80" s="1">
-        <v>12776</v>
+        <v>38668</v>
       </c>
       <c r="E80" s="1">
-        <v>8651</v>
+        <v>19268</v>
       </c>
       <c r="F80" s="1">
-        <v>15530</v>
+        <v>14200</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C81">
-        <v>9549</v>
+        <v>650</v>
       </c>
       <c r="D81" s="1">
-        <v>16516</v>
+        <v>10947</v>
       </c>
       <c r="E81" s="1">
-        <v>12946</v>
+        <v>5613</v>
       </c>
       <c r="F81" s="1">
-        <v>14500</v>
+        <v>16645</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3351,45 +3375,45 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C82">
-        <v>4112</v>
+        <v>1336</v>
       </c>
       <c r="D82" s="1">
-        <v>39188</v>
+        <v>9714</v>
       </c>
       <c r="E82" s="1">
-        <v>19142</v>
+        <v>2708</v>
       </c>
       <c r="F82" s="1">
-        <v>13600</v>
+        <v>9500</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C83">
-        <v>465</v>
+        <v>19490</v>
       </c>
       <c r="D83" s="1">
-        <v>36635</v>
+        <v>40105</v>
       </c>
       <c r="E83" s="1">
-        <v>21940</v>
+        <v>28282</v>
       </c>
       <c r="F83" s="1">
-        <v>20753</v>
+        <v>21495</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -3397,22 +3421,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>8817</v>
+        <v>22780</v>
       </c>
       <c r="D84" s="1">
-        <v>12780</v>
+        <v>10688</v>
       </c>
       <c r="E84" s="1">
-        <v>8162</v>
+        <v>5508</v>
       </c>
       <c r="F84" s="1">
-        <v>17917</v>
+        <v>15476</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -3420,22 +3444,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="C85">
-        <v>1657</v>
+        <v>7946</v>
       </c>
       <c r="D85" s="1">
-        <v>38663</v>
+        <v>38817</v>
       </c>
       <c r="E85" s="1">
-        <v>17773</v>
+        <v>20376</v>
       </c>
       <c r="F85" s="1">
-        <v>15307</v>
+        <v>14551</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -3443,22 +3467,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C86">
-        <v>1738</v>
+        <v>2848</v>
       </c>
       <c r="D86" s="1">
-        <v>38932</v>
+        <v>37688</v>
       </c>
       <c r="E86" s="1">
-        <v>18258</v>
+        <v>21081</v>
       </c>
       <c r="F86" s="1">
-        <v>17045</v>
+        <v>13926</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -3466,45 +3490,45 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C87">
-        <v>1830</v>
+        <v>36855</v>
       </c>
       <c r="D87" s="1">
-        <v>38699</v>
+        <v>15249</v>
       </c>
       <c r="E87" s="1">
-        <v>18168</v>
+        <v>11315</v>
       </c>
       <c r="F87" s="1">
-        <v>17270</v>
+        <v>15011</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C88">
-        <v>24472</v>
+        <v>17343</v>
       </c>
       <c r="D88" s="1">
-        <v>16671</v>
+        <v>16514</v>
       </c>
       <c r="E88" s="1">
-        <v>8661</v>
+        <v>13102</v>
       </c>
       <c r="F88" s="1">
-        <v>16825</v>
+        <v>15285</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -3512,22 +3536,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C89">
-        <v>35197</v>
+        <v>18043</v>
       </c>
       <c r="D89" s="1">
-        <v>12743</v>
+        <v>10677</v>
       </c>
       <c r="E89" s="1">
-        <v>8670</v>
+        <v>7478</v>
       </c>
       <c r="F89" s="1">
-        <v>18663</v>
+        <v>15580</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3535,22 +3559,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="C90">
-        <v>5915</v>
+        <v>34829</v>
       </c>
       <c r="D90" s="1">
-        <v>14135</v>
+        <v>17017</v>
       </c>
       <c r="E90" s="1">
-        <v>9339</v>
+        <v>12872</v>
       </c>
       <c r="F90" s="1">
-        <v>15711</v>
+        <v>17900</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -3558,22 +3582,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C91">
-        <v>1220</v>
+        <v>1551</v>
       </c>
       <c r="D91" s="1">
-        <v>23353</v>
+        <v>38130</v>
       </c>
       <c r="E91" s="1">
-        <v>13853</v>
+        <v>17411</v>
       </c>
       <c r="F91" s="1">
-        <v>14500</v>
+        <v>15600</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -3581,22 +3605,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C92">
-        <v>1265</v>
+        <v>4779</v>
       </c>
       <c r="D92" s="1">
-        <v>30917</v>
+        <v>40169</v>
       </c>
       <c r="E92" s="1">
-        <v>17947</v>
+        <v>18325</v>
       </c>
       <c r="F92" s="1">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -3604,22 +3628,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C93">
-        <v>1910</v>
+        <v>30908</v>
       </c>
       <c r="D93" s="1">
-        <v>13477</v>
+        <v>14691</v>
       </c>
       <c r="E93" s="1">
-        <v>8427</v>
+        <v>8723</v>
       </c>
       <c r="F93" s="1">
-        <v>9208</v>
+        <v>15677</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3627,45 +3651,45 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="C94">
-        <v>32457</v>
+        <v>1363</v>
       </c>
       <c r="D94" s="1">
-        <v>13910</v>
+        <v>37900</v>
       </c>
       <c r="E94" s="1">
-        <v>7902</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>21</v>
+        <v>18804</v>
+      </c>
+      <c r="F94" s="1">
+        <v>16758</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C95">
-        <v>1932</v>
+        <v>5139</v>
       </c>
       <c r="D95" s="1">
-        <v>35288</v>
+        <v>39200</v>
       </c>
       <c r="E95" s="1">
-        <v>21677</v>
+        <v>22360</v>
       </c>
       <c r="F95" s="1">
-        <v>14543</v>
+        <v>24590</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -3673,22 +3697,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="C96">
-        <v>1840</v>
+        <v>1882</v>
       </c>
       <c r="D96" s="1">
-        <v>32847</v>
+        <v>34472</v>
       </c>
       <c r="E96" s="1">
-        <v>16394</v>
+        <v>26447</v>
       </c>
       <c r="F96" s="1">
-        <v>0</v>
+        <v>21125</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -3696,22 +3720,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C97">
-        <v>3041</v>
+        <v>1541</v>
       </c>
       <c r="D97" s="1">
-        <v>29879</v>
+        <v>30080</v>
       </c>
       <c r="E97" s="1">
-        <v>17458</v>
+        <v>18899</v>
       </c>
       <c r="F97" s="1">
-        <v>18806</v>
+        <v>15100</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -3719,22 +3743,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="C98">
-        <v>2536</v>
+        <v>2787</v>
       </c>
       <c r="D98" s="1">
-        <v>27820</v>
+        <v>28350</v>
       </c>
       <c r="E98" s="1">
-        <v>17609</v>
+        <v>14779</v>
       </c>
       <c r="F98" s="1">
-        <v>17400</v>
+        <v>12705</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -3742,22 +3766,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C99">
-        <v>1897</v>
+        <v>1642</v>
       </c>
       <c r="D99" s="1">
-        <v>27272</v>
+        <v>32625</v>
       </c>
       <c r="E99" s="1">
-        <v>19544</v>
+        <v>28677</v>
       </c>
       <c r="F99" s="1">
-        <v>20680</v>
+        <v>27000</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -3765,22 +3789,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C100">
-        <v>5636</v>
+        <v>8324</v>
       </c>
       <c r="D100" s="1">
-        <v>10609</v>
+        <v>15416</v>
       </c>
       <c r="E100" s="1">
-        <v>7604</v>
-      </c>
-      <c r="F100" s="1">
-        <v>14382</v>
+        <v>10632</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3788,22 +3812,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C101">
-        <v>19698</v>
+        <v>3800</v>
       </c>
       <c r="D101" s="1">
-        <v>13208</v>
+        <v>16189</v>
       </c>
       <c r="E101" s="1">
-        <v>8138</v>
+        <v>10111</v>
       </c>
       <c r="F101" s="1">
-        <v>17137</v>
+        <v>15223</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3811,22 +3835,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C102">
-        <v>3849</v>
+        <v>28070</v>
       </c>
       <c r="D102" s="1">
-        <v>14326</v>
+        <v>16519</v>
       </c>
       <c r="E102" s="1">
-        <v>9416</v>
+        <v>10044</v>
       </c>
       <c r="F102" s="1">
-        <v>17991</v>
+        <v>15270</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -3834,22 +3858,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="C103">
-        <v>7219</v>
+        <v>1897</v>
       </c>
       <c r="D103" s="1">
-        <v>39253</v>
+        <v>27272</v>
       </c>
       <c r="E103" s="1">
-        <v>20700</v>
+        <v>19544</v>
       </c>
       <c r="F103" s="1">
-        <v>0</v>
+        <v>20680</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -3880,22 +3904,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C105">
-        <v>10661</v>
+        <v>6206</v>
       </c>
       <c r="D105" s="1">
-        <v>11257</v>
+        <v>12895</v>
       </c>
       <c r="E105" s="1">
-        <v>6607</v>
+        <v>9506</v>
       </c>
       <c r="F105" s="1">
-        <v>14459</v>
+        <v>14773</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -3903,137 +3927,137 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="C106">
-        <v>13373</v>
+        <v>1226</v>
       </c>
       <c r="D106" s="1">
-        <v>11130</v>
+        <v>42121</v>
       </c>
       <c r="E106" s="1">
-        <v>8174</v>
+        <v>22847</v>
       </c>
       <c r="F106" s="1">
-        <v>15081</v>
+        <v>14864</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C107">
-        <v>2166</v>
+        <v>798</v>
       </c>
       <c r="D107" s="1">
-        <v>8649</v>
+        <v>36500</v>
       </c>
       <c r="E107" s="1">
-        <v>8649</v>
+        <v>17984</v>
       </c>
       <c r="F107" s="1">
-        <v>13500</v>
+        <v>12941</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="B108" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C108">
-        <v>15961</v>
+        <v>2506</v>
       </c>
       <c r="D108" s="1">
-        <v>11290</v>
+        <v>38838</v>
       </c>
       <c r="E108" s="1">
-        <v>6673</v>
+        <v>21023</v>
       </c>
       <c r="F108" s="1">
-        <v>11156</v>
+        <v>15560</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="B109" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="C109">
-        <v>22780</v>
+        <v>2647</v>
       </c>
       <c r="D109" s="1">
-        <v>10688</v>
+        <v>37937</v>
       </c>
       <c r="E109" s="1">
-        <v>5508</v>
+        <v>18466</v>
       </c>
       <c r="F109" s="1">
-        <v>15476</v>
+        <v>19911</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="B110" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C110">
-        <v>3351</v>
+        <v>465</v>
       </c>
       <c r="D110" s="1">
-        <v>8929</v>
+        <v>36635</v>
       </c>
       <c r="E110" s="1">
-        <v>6308</v>
+        <v>21940</v>
       </c>
       <c r="F110" s="1">
-        <v>14547</v>
+        <v>20753</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B111" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C111">
-        <v>12852</v>
+        <v>1823</v>
       </c>
       <c r="D111" s="1">
-        <v>7913</v>
+        <v>16908</v>
       </c>
       <c r="E111" s="1">
-        <v>4785</v>
+        <v>12908</v>
       </c>
       <c r="F111" s="1">
-        <v>13000</v>
+        <v>17125</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -4041,45 +4065,45 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="B112" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C112">
-        <v>9803</v>
+        <v>3041</v>
       </c>
       <c r="D112" s="1">
-        <v>9715</v>
+        <v>29879</v>
       </c>
       <c r="E112" s="1">
-        <v>6375</v>
+        <v>17458</v>
       </c>
       <c r="F112" s="1">
-        <v>13583</v>
+        <v>18806</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C113">
-        <v>6206</v>
+        <v>7360</v>
       </c>
       <c r="D113" s="1">
-        <v>40080</v>
+        <v>38875</v>
       </c>
       <c r="E113" s="1">
-        <v>19996</v>
+        <v>17746</v>
       </c>
       <c r="F113" s="1">
-        <v>20025</v>
+        <v>15782</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -4087,68 +4111,68 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C114">
-        <v>1645</v>
+        <v>11953</v>
       </c>
       <c r="D114" s="1">
-        <v>34706</v>
+        <v>13574</v>
       </c>
       <c r="E114" s="1">
-        <v>21455</v>
+        <v>9599</v>
       </c>
       <c r="F114" s="1">
-        <v>13697</v>
+        <v>15108</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C115">
-        <v>4045</v>
+        <v>10328</v>
       </c>
       <c r="D115" s="1">
-        <v>36079</v>
+        <v>13587</v>
       </c>
       <c r="E115" s="1">
-        <v>21196</v>
+        <v>9214</v>
       </c>
       <c r="F115" s="1">
-        <v>24769</v>
+        <v>13915</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C116">
-        <v>18118</v>
+        <v>6187</v>
       </c>
       <c r="D116" s="1">
-        <v>10687</v>
+        <v>11276</v>
       </c>
       <c r="E116" s="1">
-        <v>7277</v>
+        <v>8276</v>
       </c>
       <c r="F116" s="1">
-        <v>15682</v>
+        <v>15000</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -4156,22 +4180,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="C117">
-        <v>11496</v>
+        <v>4900</v>
       </c>
       <c r="D117" s="1">
-        <v>15779</v>
+        <v>11782</v>
       </c>
       <c r="E117" s="1">
-        <v>13693</v>
+        <v>8961</v>
       </c>
       <c r="F117" s="1">
-        <v>20700</v>
+        <v>12430</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -4179,45 +4203,45 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="C118">
-        <v>4118</v>
+        <v>5387</v>
       </c>
       <c r="D118" s="1">
-        <v>38898</v>
+        <v>12840</v>
       </c>
       <c r="E118" s="1">
-        <v>19546</v>
+        <v>10840</v>
       </c>
       <c r="F118" s="1">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C119">
-        <v>5961</v>
+        <v>14224</v>
       </c>
       <c r="D119" s="1">
-        <v>16686</v>
+        <v>13645</v>
       </c>
       <c r="E119" s="1">
-        <v>13915</v>
+        <v>9704</v>
       </c>
       <c r="F119" s="1">
-        <v>5490</v>
+        <v>15747</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -4225,68 +4249,68 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B120" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="C120">
-        <v>28070</v>
+        <v>1479</v>
       </c>
       <c r="D120" s="1">
-        <v>16519</v>
+        <v>38676</v>
       </c>
       <c r="E120" s="1">
-        <v>10044</v>
+        <v>17386</v>
       </c>
       <c r="F120" s="1">
-        <v>15270</v>
+        <v>12759</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="B121" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C121">
-        <v>3800</v>
+        <v>1869</v>
       </c>
       <c r="D121" s="1">
-        <v>16189</v>
+        <v>24723</v>
       </c>
       <c r="E121" s="1">
-        <v>10111</v>
+        <v>15678</v>
       </c>
       <c r="F121" s="1">
-        <v>15223</v>
+        <v>15117</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="B122" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C122">
-        <v>8324</v>
+        <v>36775</v>
       </c>
       <c r="D122" s="1">
-        <v>15416</v>
+        <v>11899</v>
       </c>
       <c r="E122" s="1">
-        <v>10632</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>21</v>
+        <v>7057</v>
+      </c>
+      <c r="F122" s="1">
+        <v>15670</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -4294,91 +4318,91 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C123">
-        <v>4779</v>
+        <v>22768</v>
       </c>
       <c r="D123" s="1">
-        <v>40169</v>
+        <v>12968</v>
       </c>
       <c r="E123" s="1">
-        <v>18325</v>
+        <v>9878</v>
       </c>
       <c r="F123" s="1">
-        <v>12000</v>
+        <v>13805</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C124">
-        <v>1336</v>
+        <v>1902</v>
       </c>
       <c r="D124" s="1">
-        <v>9714</v>
+        <v>35275</v>
       </c>
       <c r="E124" s="1">
-        <v>2708</v>
+        <v>16516</v>
       </c>
       <c r="F124" s="1">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="C125">
         <v>10328</v>
       </c>
       <c r="D125" s="1">
-        <v>13587</v>
+        <v>40240</v>
       </c>
       <c r="E125" s="1">
-        <v>9214</v>
+        <v>25866</v>
       </c>
       <c r="F125" s="1">
-        <v>13915</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C126">
-        <v>5387</v>
+        <v>14296</v>
       </c>
       <c r="D126" s="1">
-        <v>12840</v>
+        <v>12776</v>
       </c>
       <c r="E126" s="1">
-        <v>10840</v>
+        <v>8651</v>
       </c>
       <c r="F126" s="1">
-        <v>15000</v>
+        <v>15530</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -4386,68 +4410,68 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="C127">
-        <v>17054</v>
+        <v>2098</v>
       </c>
       <c r="D127" s="1">
-        <v>13422</v>
+        <v>38890</v>
       </c>
       <c r="E127" s="1">
-        <v>9956</v>
+        <v>19667</v>
       </c>
       <c r="F127" s="1">
-        <v>16255</v>
+        <v>17000</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C128">
-        <v>11953</v>
+        <v>2406</v>
       </c>
       <c r="D128" s="1">
-        <v>13574</v>
+        <v>27086</v>
       </c>
       <c r="E128" s="1">
-        <v>9599</v>
+        <v>16706</v>
       </c>
       <c r="F128" s="1">
-        <v>15108</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C129">
-        <v>4900</v>
+        <v>5636</v>
       </c>
       <c r="D129" s="1">
-        <v>11782</v>
+        <v>10609</v>
       </c>
       <c r="E129" s="1">
-        <v>8961</v>
+        <v>7604</v>
       </c>
       <c r="F129" s="1">
-        <v>12430</v>
+        <v>14382</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -4455,45 +4479,45 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="C130">
-        <v>14224</v>
+        <v>4910</v>
       </c>
       <c r="D130" s="1">
-        <v>13645</v>
+        <v>39173</v>
       </c>
       <c r="E130" s="1">
-        <v>9704</v>
+        <v>20115</v>
       </c>
       <c r="F130" s="1">
-        <v>15747</v>
+        <v>15499</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B131" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C131">
-        <v>6187</v>
+        <v>14124</v>
       </c>
       <c r="D131" s="1">
-        <v>11276</v>
+        <v>16751</v>
       </c>
       <c r="E131" s="1">
-        <v>8276</v>
+        <v>9932</v>
       </c>
       <c r="F131" s="1">
-        <v>15000</v>
+        <v>13226</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -4501,22 +4525,22 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B132" t="s">
         <v>40</v>
       </c>
       <c r="C132">
-        <v>67</v>
+        <v>2147</v>
       </c>
       <c r="D132" s="1">
-        <v>8079</v>
+        <v>36455</v>
       </c>
       <c r="E132" s="1">
-        <v>5579</v>
+        <v>18431</v>
       </c>
       <c r="F132" s="1">
-        <v>5700</v>
+        <v>15725</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -4524,344 +4548,344 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="B133" t="s">
         <v>40</v>
       </c>
       <c r="C133">
-        <v>4109</v>
+        <v>17054</v>
       </c>
       <c r="D133" s="1">
-        <v>39493</v>
+        <v>13422</v>
       </c>
       <c r="E133" s="1">
-        <v>17778</v>
+        <v>9956</v>
       </c>
       <c r="F133" s="1">
-        <v>15331</v>
+        <v>16255</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="B134" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C134">
-        <v>2472</v>
+        <v>15441</v>
       </c>
       <c r="D134" s="1">
-        <v>37870</v>
+        <v>11197</v>
       </c>
       <c r="E134" s="1">
-        <v>19404</v>
+        <v>8136</v>
       </c>
       <c r="F134" s="1">
-        <v>17170</v>
+        <v>18978</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="B135" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="C135">
-        <v>917</v>
+        <v>28278</v>
       </c>
       <c r="D135" s="1">
-        <v>14652</v>
+        <v>11163</v>
       </c>
       <c r="E135" s="1">
-        <v>11167</v>
+        <v>8506</v>
       </c>
       <c r="F135" s="1">
-        <v>9250</v>
+        <v>17340</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="B136" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C136">
-        <v>2827</v>
+        <v>12889</v>
       </c>
       <c r="D136" s="1">
-        <v>38820</v>
+        <v>10706</v>
       </c>
       <c r="E136" s="1">
-        <v>18856</v>
+        <v>7144</v>
       </c>
       <c r="F136" s="1">
-        <v>12984</v>
+        <v>14029</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C137">
-        <v>13725</v>
+        <v>23835</v>
       </c>
       <c r="D137" s="1">
-        <v>38974</v>
+        <v>17265</v>
       </c>
       <c r="E137" s="1">
-        <v>23122</v>
+        <v>8982</v>
       </c>
       <c r="F137" s="1">
-        <v>15587</v>
+        <v>14990</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="B138" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C138">
-        <v>2297</v>
+        <v>22661</v>
       </c>
       <c r="D138" s="1">
-        <v>37940</v>
+        <v>16521</v>
       </c>
       <c r="E138" s="1">
-        <v>17826</v>
+        <v>10334</v>
       </c>
       <c r="F138" s="1">
-        <v>14030</v>
+        <v>13507</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="B139" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C139">
-        <v>2147</v>
+        <v>19179</v>
       </c>
       <c r="D139" s="1">
-        <v>36455</v>
+        <v>15635</v>
       </c>
       <c r="E139" s="1">
-        <v>18431</v>
+        <v>8507</v>
       </c>
       <c r="F139" s="1">
-        <v>15725</v>
+        <v>12513</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="B140" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C140">
-        <v>1851</v>
+        <v>24899</v>
       </c>
       <c r="D140" s="1">
-        <v>38463</v>
+        <v>17616</v>
       </c>
       <c r="E140" s="1">
-        <v>19474</v>
+        <v>9975</v>
       </c>
       <c r="F140" s="1">
-        <v>16856</v>
+        <v>12775</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="B141" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C141">
-        <v>1454</v>
+        <v>19087</v>
       </c>
       <c r="D141" s="1">
-        <v>38282</v>
+        <v>16000</v>
       </c>
       <c r="E141" s="1">
-        <v>20558</v>
+        <v>9043</v>
       </c>
       <c r="F141" s="1">
-        <v>15400</v>
+        <v>13275</v>
       </c>
       <c r="G141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="B142" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C142">
-        <v>4695</v>
+        <v>17714</v>
       </c>
       <c r="D142" s="1">
-        <v>37246</v>
+        <v>16154</v>
       </c>
       <c r="E142" s="1">
-        <v>20297</v>
-      </c>
-      <c r="F142" s="1">
-        <v>0</v>
+        <v>10231</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C143">
-        <v>19490</v>
+        <v>12881</v>
       </c>
       <c r="D143" s="1">
-        <v>40105</v>
+        <v>16877</v>
       </c>
       <c r="E143" s="1">
-        <v>28282</v>
+        <v>9309</v>
       </c>
       <c r="F143" s="1">
-        <v>21495</v>
+        <v>13282</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>244</v>
+        <v>103</v>
       </c>
       <c r="B144" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>2506</v>
+        <v>32044</v>
       </c>
       <c r="D144" s="1">
-        <v>38838</v>
+        <v>10839</v>
       </c>
       <c r="E144" s="1">
-        <v>21023</v>
+        <v>8353</v>
       </c>
       <c r="F144" s="1">
-        <v>15560</v>
+        <v>14927</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C145">
-        <v>5139</v>
+        <v>25158</v>
       </c>
       <c r="D145" s="1">
-        <v>39200</v>
+        <v>11937</v>
       </c>
       <c r="E145" s="1">
-        <v>22360</v>
+        <v>7877</v>
       </c>
       <c r="F145" s="1">
-        <v>24590</v>
+        <v>16737</v>
       </c>
       <c r="G145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="B146" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="C146">
-        <v>1226</v>
+        <v>14716</v>
       </c>
       <c r="D146" s="1">
-        <v>42121</v>
+        <v>14413</v>
       </c>
       <c r="E146" s="1">
-        <v>22847</v>
+        <v>9141</v>
       </c>
       <c r="F146" s="1">
-        <v>14864</v>
+        <v>16093</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C147">
-        <v>15384</v>
+        <v>17486</v>
       </c>
       <c r="D147" s="1">
-        <v>15833</v>
+        <v>13416</v>
       </c>
       <c r="E147" s="1">
-        <v>12467</v>
+        <v>7666</v>
       </c>
       <c r="F147" s="1">
-        <v>17579</v>
+        <v>13610</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -4869,22 +4893,22 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="C148">
-        <v>36855</v>
+        <v>34031</v>
       </c>
       <c r="D148" s="1">
-        <v>15249</v>
+        <v>10611</v>
       </c>
       <c r="E148" s="1">
-        <v>11315</v>
+        <v>6125</v>
       </c>
       <c r="F148" s="1">
-        <v>15011</v>
+        <v>14449</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -4892,22 +4916,22 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C149">
-        <v>17343</v>
+        <v>24983</v>
       </c>
       <c r="D149" s="1">
-        <v>16514</v>
+        <v>10534</v>
       </c>
       <c r="E149" s="1">
-        <v>13102</v>
+        <v>5245</v>
       </c>
       <c r="F149" s="1">
-        <v>15285</v>
+        <v>12906</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -4915,91 +4939,91 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="B150" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C150">
-        <v>1576</v>
+        <v>16543</v>
       </c>
       <c r="D150" s="1">
-        <v>36273</v>
+        <v>14299</v>
       </c>
       <c r="E150" s="1">
-        <v>17905</v>
+        <v>6399</v>
       </c>
       <c r="F150" s="1">
-        <v>20850</v>
+        <v>17000</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C151">
-        <v>2848</v>
+        <v>28947</v>
       </c>
       <c r="D151" s="1">
-        <v>37688</v>
+        <v>14410</v>
       </c>
       <c r="E151" s="1">
-        <v>21081</v>
+        <v>8045</v>
       </c>
       <c r="F151" s="1">
-        <v>13926</v>
+        <v>14791</v>
       </c>
       <c r="G151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="B152" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C152">
-        <v>3457</v>
+        <v>20487</v>
       </c>
       <c r="D152" s="1">
-        <v>32802</v>
+        <v>11763</v>
       </c>
       <c r="E152" s="1">
-        <v>18323</v>
+        <v>9460</v>
       </c>
       <c r="F152" s="1">
-        <v>21830</v>
+        <v>15335</v>
       </c>
       <c r="G152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B153" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C153">
-        <v>19570</v>
+        <v>20605</v>
       </c>
       <c r="D153" s="1">
-        <v>10139</v>
+        <v>9673</v>
       </c>
       <c r="E153" s="1">
-        <v>6618</v>
+        <v>6266</v>
       </c>
       <c r="F153" s="1">
-        <v>16886</v>
+        <v>17347</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -5007,22 +5031,22 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B154" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C154">
-        <v>18043</v>
+        <v>17830</v>
       </c>
       <c r="D154" s="1">
-        <v>10677</v>
+        <v>9432</v>
       </c>
       <c r="E154" s="1">
-        <v>7478</v>
-      </c>
-      <c r="F154" s="1">
-        <v>15580</v>
+        <v>5594</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -5030,22 +5054,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B155" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C155">
-        <v>16041</v>
+        <v>8817</v>
       </c>
       <c r="D155" s="1">
-        <v>12795</v>
+        <v>12780</v>
       </c>
       <c r="E155" s="1">
-        <v>9586</v>
+        <v>8162</v>
       </c>
       <c r="F155" s="1">
-        <v>22783</v>
+        <v>17917</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -5053,45 +5077,45 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c r="B156" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="C156">
-        <v>1363</v>
+        <v>9549</v>
       </c>
       <c r="D156" s="1">
-        <v>37900</v>
+        <v>16516</v>
       </c>
       <c r="E156" s="1">
-        <v>18804</v>
+        <v>12946</v>
       </c>
       <c r="F156" s="1">
-        <v>16758</v>
+        <v>14500</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="B157" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C157">
-        <v>34829</v>
+        <v>25179</v>
       </c>
       <c r="D157" s="1">
-        <v>17017</v>
+        <v>16304</v>
       </c>
       <c r="E157" s="1">
-        <v>12872</v>
+        <v>12223</v>
       </c>
       <c r="F157" s="1">
-        <v>17900</v>
+        <v>15566</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -5099,22 +5123,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B158" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C158">
-        <v>17910</v>
+        <v>18606</v>
       </c>
       <c r="D158" s="1">
-        <v>17025</v>
+        <v>14480</v>
       </c>
       <c r="E158" s="1">
-        <v>12723</v>
+        <v>9714</v>
       </c>
       <c r="F158" s="1">
-        <v>20154</v>
+        <v>15321</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -5122,298 +5146,298 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>1479</v>
+        <v>24472</v>
       </c>
       <c r="D159" s="1">
-        <v>38676</v>
+        <v>16671</v>
       </c>
       <c r="E159" s="1">
-        <v>17386</v>
+        <v>8661</v>
       </c>
       <c r="F159" s="1">
-        <v>12759</v>
+        <v>16825</v>
       </c>
       <c r="G159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="B160" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C160">
-        <v>1105</v>
+        <v>1910</v>
       </c>
       <c r="D160" s="1">
-        <v>38928</v>
+        <v>13477</v>
       </c>
       <c r="E160" s="1">
-        <v>17826</v>
+        <v>8427</v>
       </c>
       <c r="F160" s="1">
-        <v>15253</v>
+        <v>9208</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="B161" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C161">
-        <v>9742</v>
+        <v>32457</v>
       </c>
       <c r="D161" s="1">
-        <v>39040</v>
+        <v>13910</v>
       </c>
       <c r="E161" s="1">
-        <v>20596</v>
-      </c>
-      <c r="F161" s="1">
-        <v>20247</v>
+        <v>7902</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="B162" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C162">
-        <v>2300</v>
+        <v>10661</v>
       </c>
       <c r="D162" s="1">
-        <v>35713</v>
+        <v>11257</v>
       </c>
       <c r="E162" s="1">
-        <v>15147</v>
+        <v>6607</v>
       </c>
       <c r="F162" s="1">
-        <v>17380</v>
+        <v>14459</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="B163" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="C163">
-        <v>3440</v>
+        <v>19698</v>
       </c>
       <c r="D163" s="1">
-        <v>36165</v>
+        <v>13208</v>
       </c>
       <c r="E163" s="1">
-        <v>19165</v>
+        <v>8138</v>
       </c>
       <c r="F163" s="1">
-        <v>16000</v>
+        <v>17137</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="B164" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="C164">
-        <v>1321</v>
+        <v>3849</v>
       </c>
       <c r="D164" s="1">
-        <v>37890</v>
+        <v>14326</v>
       </c>
       <c r="E164" s="1">
-        <v>18609</v>
+        <v>9416</v>
       </c>
       <c r="F164" s="1">
-        <v>0</v>
+        <v>17991</v>
       </c>
       <c r="G164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>213</v>
+        <v>85</v>
       </c>
       <c r="B165" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C165">
-        <v>4706</v>
+        <v>18118</v>
       </c>
       <c r="D165" s="1">
-        <v>35670</v>
+        <v>10687</v>
       </c>
       <c r="E165" s="1">
-        <v>19123</v>
+        <v>7277</v>
       </c>
       <c r="F165" s="1">
-        <v>16972</v>
+        <v>15682</v>
       </c>
       <c r="G165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="B166" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C166">
-        <v>1926</v>
+        <v>11496</v>
       </c>
       <c r="D166" s="1">
-        <v>36580</v>
+        <v>15779</v>
       </c>
       <c r="E166" s="1">
-        <v>20925</v>
+        <v>13693</v>
       </c>
       <c r="F166" s="1">
-        <v>19656</v>
+        <v>20700</v>
       </c>
       <c r="G166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="B167" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="C167">
-        <v>5475</v>
+        <v>3351</v>
       </c>
       <c r="D167" s="1">
-        <v>38460</v>
+        <v>8929</v>
       </c>
       <c r="E167" s="1">
-        <v>24689</v>
+        <v>6308</v>
       </c>
       <c r="F167" s="1">
-        <v>19195</v>
+        <v>14547</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>2261</v>
+        <v>15961</v>
       </c>
       <c r="D168" s="1">
-        <v>36600</v>
+        <v>11290</v>
       </c>
       <c r="E168" s="1">
-        <v>19753</v>
+        <v>6673</v>
       </c>
       <c r="F168" s="1">
-        <v>17586</v>
+        <v>11156</v>
       </c>
       <c r="G168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="B169" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="C169">
-        <v>7375</v>
+        <v>9803</v>
       </c>
       <c r="D169" s="1">
-        <v>36560</v>
+        <v>9715</v>
       </c>
       <c r="E169" s="1">
-        <v>26463</v>
+        <v>6375</v>
       </c>
       <c r="F169" s="1">
-        <v>28217</v>
+        <v>13583</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="B170" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="C170">
-        <v>6030</v>
+        <v>12397</v>
       </c>
       <c r="D170" s="1">
-        <v>40248</v>
+        <v>10634</v>
       </c>
       <c r="E170" s="1">
-        <v>20838</v>
+        <v>7632</v>
       </c>
       <c r="F170" s="1">
-        <v>21700</v>
+        <v>15786</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="C171">
-        <v>1882</v>
+        <v>8261</v>
       </c>
       <c r="D171" s="1">
-        <v>34472</v>
+        <v>35392</v>
       </c>
       <c r="E171" s="1">
-        <v>26447</v>
+        <v>18011</v>
       </c>
       <c r="F171" s="1">
-        <v>21125</v>
+        <v>25595</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -5421,22 +5445,22 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B172" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C172">
-        <v>13734</v>
+        <v>19570</v>
       </c>
       <c r="D172" s="1">
-        <v>14618</v>
+        <v>10139</v>
       </c>
       <c r="E172" s="1">
-        <v>11121</v>
+        <v>6618</v>
       </c>
       <c r="F172" s="1">
-        <v>14347</v>
+        <v>16886</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -5444,22 +5468,22 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B173" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="C173">
-        <v>16567</v>
+        <v>16041</v>
       </c>
       <c r="D173" s="1">
-        <v>11795</v>
+        <v>12795</v>
       </c>
       <c r="E173" s="1">
-        <v>8794</v>
+        <v>9586</v>
       </c>
       <c r="F173" s="1">
-        <v>15260</v>
+        <v>22783</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -5467,91 +5491,91 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C174">
-        <v>10044</v>
+        <v>9742</v>
       </c>
       <c r="D174" s="1">
-        <v>14008</v>
+        <v>39040</v>
       </c>
       <c r="E174" s="1">
-        <v>11214</v>
+        <v>20596</v>
       </c>
       <c r="F174" s="1">
-        <v>15135</v>
+        <v>20247</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="B175" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C175">
-        <v>2772</v>
+        <v>17910</v>
       </c>
       <c r="D175" s="1">
-        <v>29430</v>
+        <v>17025</v>
       </c>
       <c r="E175" s="1">
-        <v>16296</v>
+        <v>12723</v>
       </c>
       <c r="F175" s="1">
-        <v>17741</v>
+        <v>20154</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="B176" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C176">
-        <v>19956</v>
+        <v>2998</v>
       </c>
       <c r="D176" s="1">
-        <v>11681</v>
+        <v>31679</v>
       </c>
       <c r="E176" s="1">
-        <v>6706</v>
+        <v>17588</v>
       </c>
       <c r="F176" s="1">
-        <v>21689</v>
+        <v>16115</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B177" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C177">
-        <v>1541</v>
+        <v>4695</v>
       </c>
       <c r="D177" s="1">
-        <v>30080</v>
+        <v>37246</v>
       </c>
       <c r="E177" s="1">
-        <v>18899</v>
+        <v>20297</v>
       </c>
       <c r="F177" s="1">
-        <v>15100</v>
+        <v>0</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -5559,68 +5583,68 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="B178" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C178">
-        <v>6146</v>
+        <v>16567</v>
       </c>
       <c r="D178" s="1">
-        <v>38847</v>
+        <v>11795</v>
       </c>
       <c r="E178" s="1">
-        <v>20971</v>
+        <v>8794</v>
       </c>
       <c r="F178" s="1">
-        <v>24023</v>
+        <v>15260</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="B179" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C179">
-        <v>39661</v>
+        <v>16145</v>
       </c>
       <c r="D179" s="1">
-        <v>14391</v>
+        <v>37968</v>
       </c>
       <c r="E179" s="1">
-        <v>9111</v>
+        <v>21606</v>
       </c>
       <c r="F179" s="1">
-        <v>16400</v>
+        <v>20619</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B180" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C180">
-        <v>36775</v>
+        <v>19956</v>
       </c>
       <c r="D180" s="1">
-        <v>11899</v>
+        <v>11681</v>
       </c>
       <c r="E180" s="1">
-        <v>7057</v>
+        <v>6706</v>
       </c>
       <c r="F180" s="1">
-        <v>15670</v>
+        <v>21689</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -5628,22 +5652,22 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B181" t="s">
         <v>33</v>
       </c>
       <c r="C181">
-        <v>7961</v>
+        <v>39661</v>
       </c>
       <c r="D181" s="1">
-        <v>12075</v>
+        <v>14391</v>
       </c>
       <c r="E181" s="1">
-        <v>7787</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>21</v>
+        <v>9111</v>
+      </c>
+      <c r="F181" s="1">
+        <v>16400</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -5651,22 +5675,22 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="B182" t="s">
         <v>33</v>
       </c>
       <c r="C182">
-        <v>22768</v>
+        <v>7961</v>
       </c>
       <c r="D182" s="1">
-        <v>12968</v>
+        <v>12075</v>
       </c>
       <c r="E182" s="1">
-        <v>9878</v>
-      </c>
-      <c r="F182" s="1">
-        <v>13805</v>
+        <v>7787</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -5674,91 +5698,91 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B183" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="C183">
-        <v>2787</v>
+        <v>8792</v>
       </c>
       <c r="D183" s="1">
-        <v>28350</v>
+        <v>17116</v>
       </c>
       <c r="E183" s="1">
-        <v>14779</v>
+        <v>8258</v>
       </c>
       <c r="F183" s="1">
-        <v>12705</v>
+        <v>22425</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>224</v>
+        <v>2</v>
       </c>
       <c r="B184" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C184">
-        <v>2406</v>
+        <v>13805</v>
       </c>
       <c r="D184" s="1">
-        <v>27086</v>
+        <v>12640</v>
       </c>
       <c r="E184" s="1">
-        <v>16706</v>
+        <v>8737</v>
       </c>
       <c r="F184" s="1">
-        <v>0</v>
+        <v>13536</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="B185" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="C185">
-        <v>29379</v>
+        <v>28362</v>
       </c>
       <c r="D185" s="1">
-        <v>9663</v>
+        <v>13835</v>
       </c>
       <c r="E185" s="1">
-        <v>7621</v>
+        <v>6926</v>
       </c>
       <c r="F185" s="1">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="G185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C186">
-        <v>13805</v>
+        <v>8158</v>
       </c>
       <c r="D186" s="1">
-        <v>12640</v>
+        <v>10425</v>
       </c>
       <c r="E186" s="1">
-        <v>8737</v>
+        <v>7327</v>
       </c>
       <c r="F186" s="1">
-        <v>13536</v>
+        <v>14306</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -5766,22 +5790,22 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C187">
-        <v>5694</v>
+        <v>29708</v>
       </c>
       <c r="D187" s="1">
-        <v>13024</v>
+        <v>13391</v>
       </c>
       <c r="E187" s="1">
-        <v>6668</v>
+        <v>7842</v>
       </c>
       <c r="F187" s="1">
-        <v>19762</v>
+        <v>15904</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -5789,22 +5813,22 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B188" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="C188">
-        <v>21468</v>
+        <v>9250</v>
       </c>
       <c r="D188" s="1">
-        <v>10122</v>
+        <v>10863</v>
       </c>
       <c r="E188" s="1">
-        <v>5613</v>
+        <v>6833</v>
       </c>
       <c r="F188" s="1">
-        <v>16229</v>
+        <v>18311</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -5812,114 +5836,114 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="B189" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C189">
-        <v>4275</v>
+        <v>6146</v>
       </c>
       <c r="D189" s="1">
-        <v>12287</v>
+        <v>38847</v>
       </c>
       <c r="E189" s="1">
-        <v>9033</v>
+        <v>20971</v>
       </c>
       <c r="F189" s="1">
-        <v>13100</v>
+        <v>24023</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C190">
-        <v>14828</v>
+        <v>2472</v>
       </c>
       <c r="D190" s="1">
-        <v>13145</v>
+        <v>37870</v>
       </c>
       <c r="E190" s="1">
-        <v>9320</v>
+        <v>19404</v>
       </c>
       <c r="F190" s="1">
-        <v>11786</v>
+        <v>17170</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>102</v>
+        <v>243</v>
       </c>
       <c r="B191" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="C191">
-        <v>16687</v>
+        <v>7375</v>
       </c>
       <c r="D191" s="1">
-        <v>11602</v>
+        <v>36560</v>
       </c>
       <c r="E191" s="1">
-        <v>7597</v>
+        <v>26463</v>
       </c>
       <c r="F191" s="1">
-        <v>14143</v>
+        <v>28217</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
       </c>
       <c r="C192">
-        <v>1750</v>
+        <v>21468</v>
       </c>
       <c r="D192" s="1">
-        <v>30225</v>
+        <v>10122</v>
       </c>
       <c r="E192" s="1">
-        <v>15452</v>
+        <v>5613</v>
       </c>
       <c r="F192" s="1">
-        <v>15634</v>
+        <v>16229</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B193" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C193">
-        <v>2998</v>
+        <v>4045</v>
       </c>
       <c r="D193" s="1">
-        <v>31679</v>
+        <v>36079</v>
       </c>
       <c r="E193" s="1">
-        <v>17588</v>
+        <v>21196</v>
       </c>
       <c r="F193" s="1">
-        <v>16115</v>
+        <v>24769</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -5927,45 +5951,45 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="B194" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C194">
-        <v>8792</v>
+        <v>1750</v>
       </c>
       <c r="D194" s="1">
-        <v>17116</v>
+        <v>30225</v>
       </c>
       <c r="E194" s="1">
-        <v>8258</v>
+        <v>15452</v>
       </c>
       <c r="F194" s="1">
-        <v>22425</v>
+        <v>15634</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B195" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C195">
-        <v>2297</v>
+        <v>7219</v>
       </c>
       <c r="D195" s="1">
-        <v>39532</v>
+        <v>39253</v>
       </c>
       <c r="E195" s="1">
-        <v>18288</v>
+        <v>20700</v>
       </c>
       <c r="F195" s="1">
-        <v>21751</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -5973,45 +5997,45 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="B196" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C196">
-        <v>28362</v>
+        <v>67</v>
       </c>
       <c r="D196" s="1">
-        <v>13835</v>
+        <v>8079</v>
       </c>
       <c r="E196" s="1">
-        <v>6926</v>
+        <v>5579</v>
       </c>
       <c r="F196" s="1">
-        <v>14500</v>
+        <v>5700</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="B197" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="C197">
-        <v>1454</v>
+        <v>2300</v>
       </c>
       <c r="D197" s="1">
-        <v>33776</v>
+        <v>37419</v>
       </c>
       <c r="E197" s="1">
-        <v>21176</v>
+        <v>17526</v>
       </c>
       <c r="F197" s="1">
-        <v>15000</v>
+        <v>15697</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -6019,68 +6043,68 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="B198" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="C198">
-        <v>29708</v>
+        <v>2733</v>
       </c>
       <c r="D198" s="1">
-        <v>13391</v>
+        <v>39127</v>
       </c>
       <c r="E198" s="1">
-        <v>7842</v>
+        <v>21401</v>
       </c>
       <c r="F198" s="1">
-        <v>15904</v>
+        <v>23753</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C199">
-        <v>8158</v>
+        <v>2395</v>
       </c>
       <c r="D199" s="1">
-        <v>10425</v>
+        <v>27076</v>
       </c>
       <c r="E199" s="1">
-        <v>7327</v>
+        <v>17341</v>
       </c>
       <c r="F199" s="1">
-        <v>14306</v>
+        <v>15864</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B200" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C200">
-        <v>1281</v>
+        <v>1454</v>
       </c>
       <c r="D200" s="1">
-        <v>30264</v>
+        <v>33776</v>
       </c>
       <c r="E200" s="1">
-        <v>17452</v>
+        <v>21176</v>
       </c>
       <c r="F200" s="1">
-        <v>14942</v>
+        <v>15000</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -6088,22 +6112,22 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="B201" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="C201">
-        <v>1389</v>
+        <v>1985</v>
       </c>
       <c r="D201" s="1">
-        <v>32875</v>
+        <v>36550</v>
       </c>
       <c r="E201" s="1">
-        <v>17882</v>
+        <v>14737</v>
       </c>
       <c r="F201" s="1">
-        <v>18311</v>
+        <v>12316</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -6111,25 +6135,25 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="B202" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C202">
-        <v>9250</v>
+        <v>5339</v>
       </c>
       <c r="D202" s="1">
-        <v>10863</v>
+        <v>38432</v>
       </c>
       <c r="E202" s="1">
-        <v>6833</v>
+        <v>15729</v>
       </c>
       <c r="F202" s="1">
-        <v>18311</v>
+        <v>19228</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6138,206 +6162,206 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A108" r:id="rId1" display="http://www.unc.edu/"/>
-    <hyperlink ref="A186" r:id="rId2" display="http://www.virginia.edu/"/>
-    <hyperlink ref="A187" r:id="rId3" display="http://www.wm.edu/"/>
-    <hyperlink ref="A39" r:id="rId4" display="http://www.uga.edu/"/>
-    <hyperlink ref="A35" r:id="rId5" display="http://www.ufl.edu/"/>
-    <hyperlink ref="A36" r:id="rId6" display="http://www.ncf.edu/"/>
-    <hyperlink ref="A40" r:id="rId7" display="http://www.gatech.edu/"/>
-    <hyperlink ref="A46" r:id="rId8" display="http://www.uiuc.edu/"/>
-    <hyperlink ref="A100" r:id="rId9" display="http://www.truman.edu/"/>
-    <hyperlink ref="A188" r:id="rId10" display="http://www.vt.edu/"/>
-    <hyperlink ref="A109" r:id="rId11" display="http://www.ncsu.edu/"/>
-    <hyperlink ref="A34" r:id="rId12" display="http://www.udel.edu/"/>
-    <hyperlink ref="A198" r:id="rId13" display="http://www.wisc.edu/"/>
-    <hyperlink ref="A88" r:id="rId14" display="http://www.umich.edu/"/>
-    <hyperlink ref="A7" r:id="rId15" display="http://www.ucsd.edu/"/>
-    <hyperlink ref="A8" r:id="rId16" display="http://www.berkeley.edu/"/>
-    <hyperlink ref="A196" r:id="rId17" display="http://www.washington.edu/"/>
-    <hyperlink ref="A124" r:id="rId18" display="http://www.nmt.edu/"/>
-    <hyperlink ref="A199" r:id="rId19" display="http://www.uwlax.edu/"/>
-    <hyperlink ref="A179" r:id="rId20" display="http://www.utexas.edu/"/>
-    <hyperlink ref="A153" r:id="rId21" display="http://www.ou.edu/"/>
-    <hyperlink ref="A59" r:id="rId22" display="http://www.ku.edu/"/>
-    <hyperlink ref="A110" r:id="rId23" display="http://www.unca.edu/"/>
-    <hyperlink ref="A125" r:id="rId24" display="http://www.binghamton.edu/"/>
-    <hyperlink ref="A23" r:id="rId25" display="http://www.mines.edu/"/>
-    <hyperlink ref="A3" r:id="rId26" display="http://www.auburn.edu/"/>
-    <hyperlink ref="A24" r:id="rId27" display="http://www.colostate.edu/"/>
-    <hyperlink ref="A119" r:id="rId28" display="http://www.tcnj.edu/"/>
-    <hyperlink ref="A89" r:id="rId29" display="http://www.msu.edu/home"/>
-    <hyperlink ref="A111" r:id="rId30" display="http://www.appstate.edu/"/>
-    <hyperlink ref="A42" r:id="rId31" display="http://www.iastate.edu/"/>
-    <hyperlink ref="A126" r:id="rId32" display="http://www.geneseo.edu/"/>
-    <hyperlink ref="A180" r:id="rId33" display="http://www.tamu.edu/"/>
-    <hyperlink ref="A181" r:id="rId34" display="http://www.utdallas.edu/"/>
-    <hyperlink ref="A112" r:id="rId35" display="http://www.uncwil.edu/"/>
-    <hyperlink ref="A77" r:id="rId36" display="http://www.maryland.edu/"/>
-    <hyperlink ref="A9" r:id="rId37" display="http://www.ucla.edu/"/>
-    <hyperlink ref="A63" r:id="rId38" display="http://www.lsu.edu/index2.html"/>
-    <hyperlink ref="A176" r:id="rId39" display="http://www.tennessee.edu/"/>
-    <hyperlink ref="A43" r:id="rId40" display="http://www.uiowa.edu/"/>
-    <hyperlink ref="A120" r:id="rId41" display="http://www.rutgers.edu/"/>
-    <hyperlink ref="A172" r:id="rId42" display="http://www.clemson.edu/"/>
-    <hyperlink ref="A25" r:id="rId43" display="http://www.colorado.edu/"/>
-    <hyperlink ref="A61" r:id="rId44" display="http://www.uky.edu/"/>
-    <hyperlink ref="A5" r:id="rId45" display="http://www.uark.edu/"/>
-    <hyperlink ref="A189" r:id="rId46" display="http://www.mwc.edu/"/>
-    <hyperlink ref="A154" r:id="rId47" display="http://www.okstate.edu/"/>
-    <hyperlink ref="A60" r:id="rId48" display="http://www.ksu.edu/"/>
-    <hyperlink ref="A44" r:id="rId49" display="http://www.uni.edu/"/>
-    <hyperlink ref="A105" r:id="rId50" display="http://www.olemiss.edu/"/>
-    <hyperlink ref="A190" r:id="rId51" display="http://www.jmu.edu/"/>
-    <hyperlink ref="A10" r:id="rId52" display="http://www.ucdavis.edu/"/>
-    <hyperlink ref="A147" r:id="rId53" display="http://www.muohio.edu/"/>
-    <hyperlink ref="A53" r:id="rId54" display="http://www.purdue.edu/"/>
-    <hyperlink ref="A106" r:id="rId55" display="http://www.msstate.edu/"/>
-    <hyperlink ref="A116" r:id="rId56" display="http://www.unl.edu/unlpub/index.shtml"/>
-    <hyperlink ref="A37" r:id="rId57" display="http://www.fsu.edu/"/>
-    <hyperlink ref="A11" r:id="rId58" display="http://www.uci.edu/"/>
-    <hyperlink ref="A101" r:id="rId59" display="http://www.missouri.edu/"/>
-    <hyperlink ref="A93" r:id="rId60" display="http://www.mrs.umn.edu/"/>
-    <hyperlink ref="A4" r:id="rId61" display="http://www.ua.edu/"/>
-    <hyperlink ref="A173" r:id="rId62" display="http://www.sc.edu/"/>
-    <hyperlink ref="A78" r:id="rId63" display="http://www.smcm.edu/"/>
-    <hyperlink ref="A90" r:id="rId64" display="http://www.mtu.edu/"/>
-    <hyperlink ref="A12" r:id="rId65" display="http://www.ucsb.edu/"/>
-    <hyperlink ref="A94" r:id="rId66" display="http://www1.umn.edu/twincities/index.php"/>
-    <hyperlink ref="A107" r:id="rId67" display="http://www.muw.edu/"/>
-    <hyperlink ref="A13" r:id="rId68" display="http://www.calpoly.edu/"/>
-    <hyperlink ref="A202" r:id="rId69" display="http://www.uwyo.edu/"/>
-    <hyperlink ref="A191" r:id="rId70" display="http://www.gmu.edu/"/>
-    <hyperlink ref="A38" r:id="rId71" display="http://www.ucf.edu/"/>
-    <hyperlink ref="A148" r:id="rId72" display="http://www.osu.edu/"/>
-    <hyperlink ref="A47" r:id="rId73" display="http://www.ilstu.edu/"/>
-    <hyperlink ref="A127" r:id="rId74" display="http://www.buffalo.edu/"/>
-    <hyperlink ref="A79" r:id="rId75" display="http://www.salisbury.edu/"/>
-    <hyperlink ref="A64" r:id="rId76" display="http://www.umass.edu/"/>
-    <hyperlink ref="A194" r:id="rId77" display="http://www.uvm.edu/"/>
-    <hyperlink ref="A174" r:id="rId78" display="http://www.cofc.edu/"/>
-    <hyperlink ref="A54" r:id="rId79" display="http://www.indiana.edu/"/>
-    <hyperlink ref="A157" r:id="rId80" display="http://www.psu.edu/"/>
-    <hyperlink ref="A128" r:id="rId81" display="http://www.albany.edu/"/>
-    <hyperlink ref="A6" r:id="rId82" display="http://www.arizona.edu/"/>
-    <hyperlink ref="A80" r:id="rId83" display="http://www.towson.edu/"/>
-    <hyperlink ref="A121" r:id="rId84" display="http://www.camden.rutgers.edu/"/>
-    <hyperlink ref="A81" r:id="rId85" display="http://www.umbc.edu/"/>
-    <hyperlink ref="A27" r:id="rId86" display="http://www.uconn.edu/"/>
-    <hyperlink ref="A158" r:id="rId87" display="http://www.pitt.edu/"/>
-    <hyperlink ref="A129" r:id="rId88" display="http://ww1.fredonia.edu/fweb/default.aspx"/>
-    <hyperlink ref="A130" r:id="rId89" display="http://www.sunysb.edu/"/>
-    <hyperlink ref="A131" r:id="rId90" display="http://www.newpaltz.edu/"/>
-    <hyperlink ref="A84" r:id="rId91" display="http://www.umaine.edu/"/>
-    <hyperlink ref="A117" r:id="rId92" display="http://www.unh.edu/"/>
-    <hyperlink ref="A102" r:id="rId93" display="http://www.umr.edu/"/>
-    <hyperlink ref="A14" r:id="rId94" display="http://www.ucsc.edu/public/"/>
-    <hyperlink ref="A122" r:id="rId95" display="http://www.rowan.edu/"/>
-    <hyperlink ref="A48" r:id="rId96" display="http://www.uic.edu/index.html/"/>
-    <hyperlink ref="A155" r:id="rId97" display="http://www.uoregon.edu/"/>
-    <hyperlink ref="A182" r:id="rId98" display="http://www.ttu.edu/"/>
-    <hyperlink ref="A149" r:id="rId99" display="http://www.ohiou.edu/"/>
-    <hyperlink ref="A15" r:id="rId100" display="http://www.ucr.edu/"/>
-    <hyperlink ref="A16" r:id="rId101" display="http://www.caltech.edu/"/>
-    <hyperlink ref="A183" r:id="rId102" display="http://www.rice.edu/"/>
-    <hyperlink ref="A65" r:id="rId103" display="http://www.williams.edu/"/>
-    <hyperlink ref="A159" r:id="rId104" display="http://www.swarthmore.edu/"/>
-    <hyperlink ref="A66" r:id="rId105" display="http://www.amherst.edu/"/>
-    <hyperlink ref="A132" r:id="rId106" display="http://www.webb-institute.edu/"/>
-    <hyperlink ref="A28" r:id="rId107" display="http://www.yale.edu/"/>
-    <hyperlink ref="A192" r:id="rId108" display="http://www2.wlu.edu/"/>
-    <hyperlink ref="A67" r:id="rId109" display="http://www.harvard.edu/"/>
-    <hyperlink ref="A17" r:id="rId110" display="http://www.stanford.edu/"/>
-    <hyperlink ref="A123" r:id="rId111" display="http://www.princeton.edu/"/>
-    <hyperlink ref="A68" r:id="rId112" display="http://web.mit.edu/"/>
-    <hyperlink ref="A18" r:id="rId113" display="http://www.pomona.edu/"/>
-    <hyperlink ref="A41" r:id="rId114" display="http://www.emory.edu/"/>
-    <hyperlink ref="A133" r:id="rId115" display="http://www.columbia.edu/"/>
-    <hyperlink ref="A113" r:id="rId116" display="http://www.duke.edu/"/>
-    <hyperlink ref="A114" r:id="rId117" display="http://www.davidson.edu/"/>
-    <hyperlink ref="A69" r:id="rId118" display="http://www.wellesley.edu/"/>
-    <hyperlink ref="A134" r:id="rId119" display="http://www.vassar.edu/"/>
-    <hyperlink ref="A160" r:id="rId120" display="http://www.haverford.edu/"/>
-    <hyperlink ref="A49" r:id="rId121" display="http://www.northwestern.edu/"/>
-    <hyperlink ref="A85" r:id="rId122" display="http://www.bowdoin.edu/"/>
-    <hyperlink ref="A161" r:id="rId123" display="http://www.upenn.edu/"/>
-    <hyperlink ref="A82" r:id="rId124" display="http://www.jhu.edu/"/>
-    <hyperlink ref="A135" r:id="rId125" display="http://www.cooper.edu/"/>
-    <hyperlink ref="A103" r:id="rId126" display="http://www.wustl.edu/"/>
-    <hyperlink ref="A118" r:id="rId127" display="http://www.dartmouth.edu/"/>
-    <hyperlink ref="A19" r:id="rId128" display="http://www.mckenna.edu/"/>
-    <hyperlink ref="A55" r:id="rId129" display="http://www.nd.edu/"/>
-    <hyperlink ref="A136" r:id="rId130" display="http://www.colgate.edu/"/>
-    <hyperlink ref="A26" r:id="rId131" display="http://www.coloradocollege.edu/index.cfm"/>
-    <hyperlink ref="A193" r:id="rId132" display="http://www.richmond.edu/"/>
-    <hyperlink ref="A32" r:id="rId133" display="http://www.georgetown.edu/"/>
-    <hyperlink ref="A170" r:id="rId134" display="http://www.brown.edu/"/>
-    <hyperlink ref="A95" r:id="rId135" display="http://www.carleton.edu/"/>
-    <hyperlink ref="A162" r:id="rId136" display="http://www.lafayette.edu/"/>
-    <hyperlink ref="A195" r:id="rId137" display="http://www.middlebury.edu/"/>
-    <hyperlink ref="A45" r:id="rId138" display="http://www.grinnell.edu/"/>
-    <hyperlink ref="A50" r:id="rId139" display="http://titan.iwu.edu/home/home.php"/>
-    <hyperlink ref="A86" r:id="rId140" display="http://www.bates.edu/"/>
-    <hyperlink ref="A137" r:id="rId141" display="http://www.cornell.edu/"/>
-    <hyperlink ref="A29" r:id="rId142" display="http://www.wesleyan.edu/"/>
-    <hyperlink ref="A87" r:id="rId143" display="http://www.colby.edu/"/>
-    <hyperlink ref="A163" r:id="rId144" display="http://www.bucknell.edu/"/>
-    <hyperlink ref="A150" r:id="rId145" display="http://www.kenyon.edu/index.xml"/>
-    <hyperlink ref="A62" r:id="rId146" display="http://www.centre.edu/"/>
-    <hyperlink ref="A177" r:id="rId147" display="http://www.rhodes.edu/"/>
-    <hyperlink ref="A96" r:id="rId148" display="http://www.macalester.edu/"/>
-    <hyperlink ref="A138" r:id="rId149" display="http://www.barnard.columbia.edu/"/>
-    <hyperlink ref="A70" r:id="rId150" display="http://www.brandeis.edu/"/>
-    <hyperlink ref="A71" r:id="rId151" display="http://www.holycross.edu/"/>
-    <hyperlink ref="A20" r:id="rId152" display="http://www.hmc.edu/"/>
-    <hyperlink ref="A115" r:id="rId153" display="http://www.wfu.edu/"/>
-    <hyperlink ref="A164" r:id="rId154" display="http://www.brynmawr.edu/"/>
-    <hyperlink ref="A51" r:id="rId155" display="http://www.wheaton.edu/"/>
-    <hyperlink ref="A72" r:id="rId156" display="http://www.tufts.edu/"/>
-    <hyperlink ref="A151" r:id="rId157" display="http://www.oberlin.edu/"/>
-    <hyperlink ref="A73" r:id="rId158" display="http://www.mtholyoke.edu/"/>
-    <hyperlink ref="A175" r:id="rId159" display="http://www.furman.edu/"/>
-    <hyperlink ref="A97" r:id="rId160" display="http://www.stolaf.edu/"/>
-    <hyperlink ref="A185" r:id="rId161" display="https://home.byu.edu/webapp/hometest/index.jsp"/>
-    <hyperlink ref="A165" r:id="rId162" display="http://www3.lehigh.edu/default.asp"/>
-    <hyperlink ref="A74" r:id="rId163" display="http://www.smith.edu/"/>
-    <hyperlink ref="A200" r:id="rId164" display="http://www.beloit.edu/"/>
-    <hyperlink ref="A56" r:id="rId165" display="http://www.tayloru.edu/"/>
-    <hyperlink ref="A139" r:id="rId166" display="http://www.union.edu/"/>
-    <hyperlink ref="A140" r:id="rId167" display="http://www.hamilton.edu/"/>
-    <hyperlink ref="A57" r:id="rId168" display="http://www.depauw.edu/"/>
-    <hyperlink ref="A91" r:id="rId169" display="http://www.hillsdale.edu/"/>
-    <hyperlink ref="A52" r:id="rId170" display="http://www.knox.edu/"/>
-    <hyperlink ref="A21" r:id="rId171" display="http://www.usc.edu/"/>
-    <hyperlink ref="A30" r:id="rId172" display="http://www.trincoll.edu/pub/"/>
-    <hyperlink ref="A184" r:id="rId173" display="http://www.trinity.edu/"/>
-    <hyperlink ref="A98" r:id="rId174" display="http://www.gustavus.edu/index.cfm"/>
-    <hyperlink ref="A178" r:id="rId175" display="http://www.vanderbilt.edu/"/>
-    <hyperlink ref="A197" r:id="rId176" display="http://www.whitman.edu/homepage/"/>
-    <hyperlink ref="A22" r:id="rId177" display="http://www.scrippscol.edu/"/>
-    <hyperlink ref="A166" r:id="rId178" display="http://www.fandm.edu/"/>
-    <hyperlink ref="A104" r:id="rId179" display="http://www.slu.edu/"/>
-    <hyperlink ref="A167" r:id="rId180" display="http://www.cmu.edu/"/>
-    <hyperlink ref="A201" r:id="rId181" display="http://www.lawrence.edu/"/>
-    <hyperlink ref="A31" r:id="rId182" display="http://www.conncoll.edu/"/>
-    <hyperlink ref="A152" r:id="rId183" display="http://www.cwru.edu/"/>
-    <hyperlink ref="A168" r:id="rId184" display="http://www.dickinson.edu/"/>
-    <hyperlink ref="A92" r:id="rId185" display="http://www.kzoo.edu/"/>
-    <hyperlink ref="A99" r:id="rId186" display="http://www.csbsju.edu/"/>
-    <hyperlink ref="A75" r:id="rId187" display="http://www.bc.edu/"/>
-    <hyperlink ref="A156" r:id="rId188" display="http://web.reed.edu/"/>
-    <hyperlink ref="A141" r:id="rId189" display="http://www.bard.edu/"/>
-    <hyperlink ref="A142" r:id="rId190" display="http://www.rochester.edu/"/>
-    <hyperlink ref="A143" r:id="rId191" display="http://www.nyu.edu/"/>
-    <hyperlink ref="A169" r:id="rId192" display="http://www.villanova.edu/villanovaWeb/viewHomepage"/>
-    <hyperlink ref="A144" r:id="rId193" display="http://www.skidmore.edu/"/>
-    <hyperlink ref="A58" r:id="rId194" display="http://www.rose-hulman.edu/"/>
-    <hyperlink ref="A83" r:id="rId195" display="http://www.sjca.edu/"/>
-    <hyperlink ref="A76" r:id="rId196" display="http://www3.babson.edu/"/>
-    <hyperlink ref="A171" r:id="rId197" display="http://www.risd.edu/"/>
-    <hyperlink ref="A145" r:id="rId198" display="http://www.rpi.edu/"/>
-    <hyperlink ref="A146" r:id="rId199" display="http://www.slc.edu/"/>
-    <hyperlink ref="A33" r:id="rId200" display="http://www.gwu.edu/"/>
+    <hyperlink ref="A168" r:id="rId1" display="http://www.unc.edu/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A184" r:id="rId2" display="http://www.virginia.edu/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A31" r:id="rId3" display="http://www.wm.edu/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A149" r:id="rId4" display="http://www.uga.edu/" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A148" r:id="rId5" display="http://www.ufl.edu/" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A81" r:id="rId6" display="http://www.ncf.edu/" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A49" r:id="rId7" display="http://www.gatech.edu/" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A151" r:id="rId8" display="http://www.uiuc.edu/" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A129" r:id="rId9" display="http://www.truman.edu/" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A192" r:id="rId10" display="http://www.vt.edu/" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A84" r:id="rId11" display="http://www.ncsu.edu/" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="A147" r:id="rId12" display="http://www.udel.edu/" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A187" r:id="rId13" display="http://www.wisc.edu/" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A159" r:id="rId14" display="http://www.umich.edu/" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A141" r:id="rId15" display="http://www.ucsd.edu/" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A137" r:id="rId16" display="http://www.berkeley.edu/" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="A185" r:id="rId17" display="http://www.washington.edu/" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="A82" r:id="rId18" display="http://www.nmt.edu/" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="A186" r:id="rId19" display="http://www.uwlax.edu/" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="A181" r:id="rId20" display="http://www.utexas.edu/" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="A172" r:id="rId21" display="http://www.ou.edu/" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="A153" r:id="rId22" display="http://www.ku.edu/" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="A167" r:id="rId23" display="http://www.unca.edu/" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="A115" r:id="rId24" display="http://www.binghamton.edu/" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="A32" r:id="rId25" display="http://www.mines.edu/" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="A5" r:id="rId26" display="http://www.auburn.edu/" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="A33" r:id="rId27" display="http://www.colostate.edu/" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" display="http://www.tcnj.edu/" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="A75" r:id="rId29" display="http://www.msu.edu/home" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="A4" r:id="rId30" display="http://www.appstate.edu/" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="A60" r:id="rId31" display="http://www.iastate.edu/" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="A118" r:id="rId32" display="http://www.geneseo.edu/" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="A122" r:id="rId33" display="http://www.tamu.edu/" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="A182" r:id="rId34" display="http://www.utdallas.edu/" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="A169" r:id="rId35" display="http://www.uncwil.edu/" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="A157" r:id="rId36" display="http://www.maryland.edu/" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="A140" r:id="rId37" display="http://www.ucla.edu/" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="A70" r:id="rId38" display="http://www.lsu.edu/index2.html" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="A180" r:id="rId39" display="http://www.tennessee.edu/" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="A152" r:id="rId40" display="http://www.uiowa.edu/" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="A102" r:id="rId41" display="http://www.rutgers.edu/" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="A25" r:id="rId42" display="http://www.clemson.edu/" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="A145" r:id="rId43" display="http://www.colorado.edu/" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="A154" r:id="rId44" display="http://www.uky.edu/" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="A136" r:id="rId45" display="http://www.uark.edu/" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="A72" r:id="rId46" display="http://www.mwc.edu/" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="A89" r:id="rId47" display="http://www.okstate.edu/" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="A64" r:id="rId48" display="http://www.ksu.edu/" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="A170" r:id="rId49" display="http://www.uni.edu/" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="A162" r:id="rId50" display="http://www.olemiss.edu/" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="A61" r:id="rId51" display="http://www.jmu.edu/" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="A138" r:id="rId52" display="http://www.ucdavis.edu/" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="A74" r:id="rId53" display="http://www.muohio.edu/" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="A93" r:id="rId54" display="http://www.purdue.edu/" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="A78" r:id="rId55" display="http://www.msstate.edu/" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="A165" r:id="rId56" display="http://www.unl.edu/unlpub/index.shtml" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="A44" r:id="rId57" display="http://www.fsu.edu/" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="A139" r:id="rId58" display="http://www.uci.edu/" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="A163" r:id="rId59" display="http://www.missouri.edu/" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="A160" r:id="rId60" display="http://www.mrs.umn.edu/" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="A134" r:id="rId61" display="http://www.ua.edu/" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="A178" r:id="rId62" display="http://www.sc.edu/" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="A111" r:id="rId63" display="http://www.smcm.edu/" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="A76" r:id="rId64" display="http://www.mtu.edu/" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="A142" r:id="rId65" display="http://www.ucsb.edu/" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="A161" r:id="rId66" display="http://www1.umn.edu/twincities/index.php" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="A79" r:id="rId67" display="http://www.muw.edu/" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="A19" r:id="rId68" display="http://www.calpoly.edu/" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="A188" r:id="rId69" display="http://www.uwyo.edu/" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="A47" r:id="rId70" display="http://www.gmu.edu/" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="A144" r:id="rId71" display="http://www.ucf.edu/" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="A87" r:id="rId72" display="http://www.osu.edu/" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="A57" r:id="rId73" display="http://www.ilstu.edu/" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="A133" r:id="rId74" display="http://www.buffalo.edu/" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="A105" r:id="rId75" display="http://www.salisbury.edu/" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="A158" r:id="rId76" display="http://www.umass.edu/" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="A183" r:id="rId77" display="http://www.uvm.edu/" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="A28" r:id="rId78" display="http://www.cofc.edu/" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="A59" r:id="rId79" display="http://www.indiana.edu/" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="A90" r:id="rId80" display="http://www.psu.edu/" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="A114" r:id="rId81" display="http://www.albany.edu/" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="A135" r:id="rId82" display="http://www.arizona.edu/" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="A126" r:id="rId83" display="http://www.towson.edu/" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="A101" r:id="rId84" display="http://www.camden.rutgers.edu/" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="A156" r:id="rId85" display="http://www.umbc.edu/" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="A146" r:id="rId86" display="http://www.uconn.edu/" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="A175" r:id="rId87" display="http://www.pitt.edu/" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="A117" r:id="rId88" display="http://ww1.fredonia.edu/fweb/default.aspx" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="A119" r:id="rId89" display="http://www.sunysb.edu/" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="A116" r:id="rId90" display="http://www.newpaltz.edu/" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="A155" r:id="rId91" display="http://www.umaine.edu/" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="A166" r:id="rId92" display="http://www.unh.edu/" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="A164" r:id="rId93" display="http://www.umr.edu/" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="A143" r:id="rId94" display="http://www.ucsc.edu/public/" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="A100" r:id="rId95" display="http://www.rowan.edu/" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="A150" r:id="rId96" display="http://www.uic.edu/index.html/" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="A173" r:id="rId97" display="http://www.uoregon.edu/" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="A123" r:id="rId98" display="http://www.ttu.edu/" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="A88" r:id="rId99" display="http://www.ohiou.edu/" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="A131" r:id="rId100" display="http://www.ucr.edu/" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="A18" r:id="rId101" display="http://www.caltech.edu/" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="A98" r:id="rId102" display="http://www.rice.edu/" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="A201" r:id="rId103" display="http://www.williams.edu/" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="A120" r:id="rId104" display="http://www.swarthmore.edu/" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="A3" r:id="rId105" display="http://www.amherst.edu/" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="A196" r:id="rId106" display="http://www.webb-institute.edu/" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="A202" r:id="rId107" display="http://www.yale.edu/" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="A194" r:id="rId108" display="http://www2.wlu.edu/" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="A53" r:id="rId109" display="http://www.harvard.edu/" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="A113" r:id="rId110" display="http://www.stanford.edu/" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="A92" r:id="rId111" display="http://www.princeton.edu/" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="A73" r:id="rId112" display="http://web.mit.edu/" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="A91" r:id="rId113" display="http://www.pomona.edu/" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="A43" r:id="rId114" display="http://www.emory.edu/" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="A34" r:id="rId115" display="http://www.columbia.edu/" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="A42" r:id="rId116" display="http://www.duke.edu/" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="A39" r:id="rId117" display="http://www.davidson.edu/" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="A197" r:id="rId118" display="http://www.wellesley.edu/" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="A190" r:id="rId119" display="http://www.vassar.edu/" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="A55" r:id="rId120" display="http://www.haverford.edu/" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="A85" r:id="rId121" display="http://www.northwestern.edu/" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="A12" r:id="rId122" display="http://www.bowdoin.edu/" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="A174" r:id="rId123" display="http://www.upenn.edu/" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="A62" r:id="rId124" display="http://www.jhu.edu/" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="A36" r:id="rId125" display="http://www.cooper.edu/" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="A195" r:id="rId126" display="http://www.wustl.edu/" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="A38" r:id="rId127" display="http://www.dartmouth.edu/" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="A24" r:id="rId128" display="http://www.mckenna.edu/" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="A171" r:id="rId129" display="http://www.nd.edu/" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="A27" r:id="rId130" display="http://www.colgate.edu/" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="A124" r:id="rId131" display="http://www.coloradocollege.edu/index.cfm" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="A176" r:id="rId132" display="http://www.richmond.edu/" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="A48" r:id="rId133" display="http://www.georgetown.edu/" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="A15" r:id="rId134" display="http://www.brown.edu/" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="A20" r:id="rId135" display="http://www.carleton.edu/" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="A67" r:id="rId136" display="http://www.lafayette.edu/" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="A77" r:id="rId137" display="http://www.middlebury.edu/" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="A50" r:id="rId138" display="http://www.grinnell.edu/" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="A58" r:id="rId139" display="http://titan.iwu.edu/home/home.php" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="A9" r:id="rId140" display="http://www.bates.edu/" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="A37" r:id="rId141" display="http://www.cornell.edu/" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="A198" r:id="rId142" display="http://www.wesleyan.edu/" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="A26" r:id="rId143" display="http://www.colby.edu/" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="A17" r:id="rId144" display="http://www.bucknell.edu/" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="A65" r:id="rId145" display="http://www.kenyon.edu/index.xml" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="A23" r:id="rId146" display="http://www.centre.edu/" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="A97" r:id="rId147" display="http://www.rhodes.edu/" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="A71" r:id="rId148" display="http://www.macalester.edu/" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="A8" r:id="rId149" display="http://www.barnard.columbia.edu/" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="A13" r:id="rId150" display="http://www.brandeis.edu/" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="A30" r:id="rId151" display="http://www.holycross.edu/" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="A54" r:id="rId152" display="http://www.hmc.edu/" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="A193" r:id="rId153" display="http://www.wfu.edu/" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="A16" r:id="rId154" display="http://www.brynmawr.edu/" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="A199" r:id="rId155" display="http://www.wheaton.edu/" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="A130" r:id="rId156" display="http://www.tufts.edu/" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="A86" r:id="rId157" display="http://www.oberlin.edu/" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
+    <hyperlink ref="A80" r:id="rId158" display="http://www.mtholyoke.edu/" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
+    <hyperlink ref="A46" r:id="rId159" display="http://www.furman.edu/" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
+    <hyperlink ref="A112" r:id="rId160" display="http://www.stolaf.edu/" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
+    <hyperlink ref="A14" r:id="rId161" display="https://home.byu.edu/webapp/hometest/index.jsp" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
+    <hyperlink ref="A69" r:id="rId162" display="http://www3.lehigh.edu/default.asp" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
+    <hyperlink ref="A109" r:id="rId163" display="http://www.smith.edu/" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
+    <hyperlink ref="A10" r:id="rId164" display="http://www.beloit.edu/" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
+    <hyperlink ref="A121" r:id="rId165" display="http://www.tayloru.edu/" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="A132" r:id="rId166" display="http://www.union.edu/" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="A52" r:id="rId167" display="http://www.hamilton.edu/" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="A40" r:id="rId168" display="http://www.depauw.edu/" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="A56" r:id="rId169" display="http://www.hillsdale.edu/" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
+    <hyperlink ref="A66" r:id="rId170" display="http://www.knox.edu/" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
+    <hyperlink ref="A179" r:id="rId171" display="http://www.usc.edu/" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
+    <hyperlink ref="A127" r:id="rId172" display="http://www.trincoll.edu/pub/" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
+    <hyperlink ref="A128" r:id="rId173" display="http://www.trinity.edu/" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
+    <hyperlink ref="A51" r:id="rId174" display="http://www.gustavus.edu/index.cfm" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
+    <hyperlink ref="A189" r:id="rId175" display="http://www.vanderbilt.edu/" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
+    <hyperlink ref="A200" r:id="rId176" display="http://www.whitman.edu/homepage/" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
+    <hyperlink ref="A107" r:id="rId177" display="http://www.scrippscol.edu/" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
+    <hyperlink ref="A45" r:id="rId178" display="http://www.fandm.edu/" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
+    <hyperlink ref="A104" r:id="rId179" display="http://www.slu.edu/" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
+    <hyperlink ref="A21" r:id="rId180" display="http://www.cmu.edu/" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
+    <hyperlink ref="A68" r:id="rId181" display="http://www.lawrence.edu/" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
+    <hyperlink ref="A35" r:id="rId182" display="http://www.conncoll.edu/" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
+    <hyperlink ref="A22" r:id="rId183" display="http://www.cwru.edu/" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
+    <hyperlink ref="A41" r:id="rId184" display="http://www.dickinson.edu/" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
+    <hyperlink ref="A63" r:id="rId185" display="http://www.kzoo.edu/" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
+    <hyperlink ref="A103" r:id="rId186" display="http://www.csbsju.edu/" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
+    <hyperlink ref="A11" r:id="rId187" display="http://www.bc.edu/" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
+    <hyperlink ref="A94" r:id="rId188" display="http://web.reed.edu/" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
+    <hyperlink ref="A7" r:id="rId189" display="http://www.bard.edu/" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
+    <hyperlink ref="A177" r:id="rId190" display="http://www.rochester.edu/" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
+    <hyperlink ref="A83" r:id="rId191" display="http://www.nyu.edu/" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
+    <hyperlink ref="A191" r:id="rId192" display="http://www.villanova.edu/villanovaWeb/viewHomepage" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
+    <hyperlink ref="A108" r:id="rId193" display="http://www.skidmore.edu/" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
+    <hyperlink ref="A99" r:id="rId194" display="http://www.rose-hulman.edu/" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
+    <hyperlink ref="A110" r:id="rId195" display="http://www.sjca.edu/" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
+    <hyperlink ref="A6" r:id="rId196" display="http://www3.babson.edu/" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
+    <hyperlink ref="A96" r:id="rId197" display="http://www.risd.edu/" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
+    <hyperlink ref="A95" r:id="rId198" display="http://www.rpi.edu/" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
+    <hyperlink ref="A106" r:id="rId199" display="http://www.slc.edu/" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
+    <hyperlink ref="A125" r:id="rId200" display="http://www.gwu.edu/" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId201"/>
